--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Construction_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Construction_final.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.23152225719582</v>
+        <v>2.307470254867937e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>58.70820999999992</v>
+        <v>1.1e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>11196.40278735485</v>
+        <v>0.002097839989686341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09420937609055081</v>
+        <v>1.765175836558567e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1185119574679762</v>
+        <v>2.220526791989978e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.396134184905198</v>
+        <v>2.615899213066996e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>6.541414347705684e-07</v>
+        <v>1.225647278715577e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.406700236257532e-05</v>
+        <v>2.635696540370226e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>8.842072009070698</v>
+        <v>1.656715340150514e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>2301.144474567932</v>
+        <v>0.0004311592743203597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02804186875520699</v>
+        <v>5.254129810928954e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>9.818352991712628e-06</v>
+        <v>1.839638491939016e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3940345565701972</v>
+        <v>7.382919905533102e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>48.14536597515106</v>
+        <v>9.020868218033941e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>754.1153137135843</v>
+        <v>0.0001412965656907175</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.565868690380713e-06</v>
+        <v>1.042861902861421e-12</v>
       </c>
     </row>
     <row r="3">
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.244250579245313e-07</v>
+        <v>1.887930208528313e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5e-05</v>
+        <v>9e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004767818158378046</v>
+        <v>0.001716414537016096</v>
       </c>
       <c r="E3" t="n">
-        <v>4.011763264905836e-08</v>
+        <v>1.444234775366101e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>5.04665179997722e-08</v>
+        <v>1.816794647991799e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>5.945225484243169e-07</v>
+        <v>2.140281174327541e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>2.78556199708074e-13</v>
+        <v>1.002802318949066e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>5.990219409930991e-12</v>
+        <v>2.156478987575157e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765262136705715e-06</v>
+        <v>1.355494369214057e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0009799074416371823</v>
+        <v>0.0003527666789893856</v>
       </c>
       <c r="L3" t="n">
-        <v>1.194120411574762e-08</v>
+        <v>4.298833481669144e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>4.18099657258867e-12</v>
+        <v>1.505158766131921e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.677936342166615e-07</v>
+        <v>6.040570831799816e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>2.050197322280439e-05</v>
+        <v>7.380710360209579e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0003211285583879944</v>
+        <v>0.000115606281019678</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.370140688321416e-12</v>
+        <v>8.532506477957097e-13</v>
       </c>
     </row>
     <row r="4">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001168535673887188</v>
+        <v>5.425371372151561e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01535899999999524</v>
+        <v>0.00713099999999612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3936441707400241</v>
+        <v>0.1827642803272644</v>
       </c>
       <c r="E4" t="n">
-        <v>2.039667648280096e-06</v>
+        <v>9.469932938265483e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>3.274917885729696e-05</v>
+        <v>1.520505204969919e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004009499270301821</v>
+        <v>0.0001861562555929135</v>
       </c>
       <c r="H4" t="n">
-        <v>1.552370371688888e-11</v>
+        <v>7.207469965825161e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>1.853595049761454e-10</v>
+        <v>8.606020118396922e-11</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001676814342506618</v>
+        <v>0.000778524843831753</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06123095990281541</v>
+        <v>0.028428802335235</v>
       </c>
       <c r="L4" t="n">
-        <v>2.44266159299145e-07</v>
+        <v>1.134098562381532e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>8.601567622713121e-10</v>
+        <v>3.99360496891418e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>6.778449487034478e-05</v>
+        <v>3.147153023766622e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008302691702294626</v>
+        <v>0.003854840453743675</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2791737791421273</v>
+        <v>0.1296170466216579</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.556058128078093e-09</v>
+        <v>7.224591777669304e-10</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.048850115849063e-07</v>
+        <v>6.293100695094378e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>5e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009535636316756097</v>
+        <v>0.0005721381790053657</v>
       </c>
       <c r="E5" t="n">
-        <v>8.023526529811668e-09</v>
+        <v>4.814115917887e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>1.009330359995443e-08</v>
+        <v>6.055982159972656e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>1.189045096848635e-07</v>
+        <v>7.134270581091808e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>5.571123994161705e-14</v>
+        <v>3.342674396497022e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>1.198043881986456e-12</v>
+        <v>7.188263291918733e-13</v>
       </c>
       <c r="J5" t="n">
-        <v>7.530524273411433e-07</v>
+        <v>4.518314564046859e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001959814883274365</v>
+        <v>0.0001175888929964619</v>
       </c>
       <c r="L5" t="n">
-        <v>2.388240823149526e-09</v>
+        <v>1.432944493889715e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>8.361993145177346e-13</v>
+        <v>5.017195887106407e-13</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35587268433323e-08</v>
+        <v>2.013523610599938e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>4.100394644560883e-06</v>
+        <v>2.460236786736529e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>6.422571167759888e-05</v>
+        <v>3.853542700655933e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.740281376642829e-13</v>
+        <v>2.844168825985697e-13</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.943487158590815e-09</v>
+        <v>4.471743579295407e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>5.06732222472488e-05</v>
+        <v>2.53366111236244e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>3.177742415797203e-10</v>
+        <v>1.588871207898602e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.609655095125181e-09</v>
+        <v>1.304827547562591e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>2.55878908125281e-08</v>
+        <v>1.279394540626405e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>5.097002350586183e-15</v>
+        <v>2.548501175293091e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>4.469006143273505e-14</v>
+        <v>2.234503071636753e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>1.032208421027865e-07</v>
+        <v>5.161042105139326e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>2.702269824832802e-05</v>
+        <v>1.351134912416401e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.036920307973134e-11</v>
+        <v>2.018460153986567e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>1.713617858449741e-13</v>
+        <v>8.568089292248704e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>7.274098121964733e-09</v>
+        <v>3.637049060982367e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>9.472670138815508e-07</v>
+        <v>4.736335069407754e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>2.341504519379127e-05</v>
+        <v>1.170752259689564e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.218290884547109e-13</v>
+        <v>2.109145442273554e-13</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.927975088937048e-07</v>
+        <v>3.552807737916435e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>3.9e-05</v>
+        <v>2.000000000000001e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004622617732017928</v>
+        <v>0.00237057319590663</v>
       </c>
       <c r="E7" t="n">
-        <v>3.753034536550085e-08</v>
+        <v>1.924633095666711e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>7.098131539575438e-08</v>
+        <v>3.640067456192533e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>6.870701190362013e-07</v>
+        <v>3.523436507877956e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>4.84299113079987e-13</v>
+        <v>2.483585195281985e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>6.406591502480472e-12</v>
+        <v>3.285431539733576e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>1.083717207256857e-05</v>
+        <v>5.557524139778755e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005054954281327932</v>
+        <v>0.0002592284246834838</v>
       </c>
       <c r="L7" t="n">
-        <v>1.423296601941815e-08</v>
+        <v>7.298956933034953e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>5.158756559067162e-12</v>
+        <v>2.645516184137007e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.943518514117748e-07</v>
+        <v>9.966761610860246e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000172967905763148</v>
+        <v>8.87014901349477e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006428381720372889</v>
+        <v>0.0003296606010447636</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.906000297467818e-12</v>
+        <v>3.028718101265549e-12</v>
       </c>
     </row>
     <row r="8">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.356320370717002e-07</v>
+        <v>1.678160185358502e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6e-05</v>
+        <v>8.000000000000001e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003051403621361948</v>
+        <v>0.001525701810680974</v>
       </c>
       <c r="E9" t="n">
-        <v>2.567528489539735e-08</v>
+        <v>1.283764244769868e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>3.229857151985422e-08</v>
+        <v>1.614928575992711e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>3.804944309915624e-07</v>
+        <v>1.902472154957812e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>1.782759678131707e-13</v>
+        <v>8.913798390658539e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833740422356225e-12</v>
+        <v>1.916870211178113e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.409767767491656e-06</v>
+        <v>1.204883883745828e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006271407626477962</v>
+        <v>0.0003135703813238982</v>
       </c>
       <c r="L9" t="n">
-        <v>7.642370634078475e-09</v>
+        <v>3.821185317039238e-09</v>
       </c>
       <c r="M9" t="n">
-        <v>2.675837806456748e-12</v>
+        <v>1.337918903228374e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.073879258986633e-07</v>
+        <v>5.369396294933166e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.312126286259483e-05</v>
+        <v>6.560631431297415e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002055222773683164</v>
+        <v>0.0001027611386841582</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.516890040525705e-12</v>
+        <v>7.584450202628526e-13</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.735295689294837e-06</v>
+        <v>0.01232680747604815</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001041</v>
+        <v>1.90521799999988</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0470669009911797</v>
+        <v>86.14092888819191</v>
       </c>
       <c r="E10" t="n">
-        <v>3.797689752360833e-07</v>
+        <v>0.0006950458092807826</v>
       </c>
       <c r="F10" t="n">
-        <v>1.643345367944697e-06</v>
+        <v>0.003007618804250396</v>
       </c>
       <c r="G10" t="n">
-        <v>1.605082681662411e-05</v>
+        <v>0.02937591178281751</v>
       </c>
       <c r="H10" t="n">
-        <v>7.776963088616537e-12</v>
+        <v>1.423324693733611e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>1.101012897039195e-10</v>
+        <v>2.015052439645619e-07</v>
       </c>
       <c r="J10" t="n">
-        <v>5.201944567422566e-05</v>
+        <v>0.09520498006585076</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03684652168235011</v>
+        <v>67.43578899769385</v>
       </c>
       <c r="L10" t="n">
-        <v>5.758974349680633e-08</v>
+        <v>0.0001053996310523453</v>
       </c>
       <c r="M10" t="n">
-        <v>1.768585966182535e-10</v>
+        <v>3.23683171692425e-07</v>
       </c>
       <c r="N10" t="n">
-        <v>5.230535098332509e-06</v>
+        <v>0.009572823841473812</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0004694689181257835</v>
+        <v>0.8592129041822409</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01063714262033255</v>
+        <v>19.46789201616088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.005849895921605e-10</v>
+        <v>1.840886961582947e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1022,52 +1022,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1278928889208302</v>
+        <v>0.1269223425827117</v>
       </c>
       <c r="C11" t="n">
-        <v>13.334882</v>
+        <v>13.23368699999999</v>
       </c>
       <c r="D11" t="n">
-        <v>669.1519076216455</v>
+        <v>664.073885387045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005434974454269086</v>
+        <v>0.005393729826840081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0311180201181049</v>
+        <v>0.03088187344310233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3181277983894286</v>
+        <v>0.3157136081057786</v>
       </c>
       <c r="H11" t="n">
-        <v>4.745552930499709e-08</v>
+        <v>4.709540146224458e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>7.772851909137138e-07</v>
+        <v>7.713865729211052e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7265025432536063</v>
+        <v>0.7209893017517657</v>
       </c>
       <c r="K11" t="n">
-        <v>1698.713469147861</v>
+        <v>1685.822368235951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008776322828512666</v>
+        <v>0.0008709721565102062</v>
       </c>
       <c r="M11" t="n">
-        <v>2.466216721089204e-06</v>
+        <v>2.447501234811139e-06</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09326569280273363</v>
+        <v>0.09255792337641454</v>
       </c>
       <c r="O11" t="n">
-        <v>5.288538818820097</v>
+        <v>5.248405453877647</v>
       </c>
       <c r="P11" t="n">
-        <v>137.1391802965323</v>
+        <v>136.0984662242138</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22269924846834e-06</v>
+        <v>1.213420497411619e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1634668922137703</v>
+        <v>0.1634669004759482</v>
       </c>
       <c r="C13" t="n">
-        <v>19.784964</v>
+        <v>19.784965</v>
       </c>
       <c r="D13" t="n">
-        <v>979.3346489315619</v>
+        <v>979.334698430497</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008957474158417847</v>
+        <v>0.00895747461115934</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02765014362371846</v>
+        <v>0.02765014502125164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361888207483042</v>
+        <v>0.2361888326860981</v>
       </c>
       <c r="H13" t="n">
-        <v>1.00625794691075e-07</v>
+        <v>1.006257997770481e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>1.076854456620198e-06</v>
+        <v>1.076854511048119e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9151990855573937</v>
+        <v>0.9151991318146973</v>
       </c>
       <c r="K13" t="n">
-        <v>228.0323216251303</v>
+        <v>228.0323331506667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0008699179239949662</v>
+        <v>0.0008699179679636043</v>
       </c>
       <c r="M13" t="n">
-        <v>2.383504407353252e-06</v>
+        <v>2.383504527823747e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4107202215753447</v>
+        <v>0.4107202423345546</v>
       </c>
       <c r="O13" t="n">
-        <v>10.46881479560086</v>
+        <v>10.4688153247307</v>
       </c>
       <c r="P13" t="n">
-        <v>207.651305922057</v>
+        <v>207.6513164174669</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.204342571010098e-06</v>
+        <v>1.204342631881706e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.262177894979757e-09</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4.949893509695352e-05</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.527414939151695e-10</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.39753317841359e-09</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193779380888963e-08</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.085973100131748e-15</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.44279209514962e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.625730355422399e-08</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.15255363429082e-05</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4.396863820398997e-11</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.204704950361928e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.075920995233273e-08</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.291298379719497e-07</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.049540984365992e-05</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.087160790437112e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1242,52 +1242,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.372274091818137</v>
+        <v>2.372274284010907</v>
       </c>
       <c r="C15" t="n">
-        <v>246.86403</v>
+        <v>246.86405</v>
       </c>
       <c r="D15" t="n">
-        <v>24676.98127319258</v>
+        <v>24676.98327242926</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1659718946483337</v>
+        <v>0.1659719080947556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4018105833758845</v>
+        <v>0.4018106159290744</v>
       </c>
       <c r="G15" t="n">
-        <v>3.61994995223459</v>
+        <v>3.619950245509389</v>
       </c>
       <c r="H15" t="n">
-        <v>1.137663810803713e-06</v>
+        <v>1.137663902972978e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>1.836944983235756e-05</v>
+        <v>1.836945132058166e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>20.47272135034325</v>
+        <v>20.47272300896652</v>
       </c>
       <c r="K15" t="n">
-        <v>5942.874237516095</v>
+        <v>5942.874718985528</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0479478931085006</v>
+        <v>0.04794789699305948</v>
       </c>
       <c r="M15" t="n">
-        <v>2.207329818567888e-05</v>
+        <v>2.20732999739749e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.184408964640032</v>
+        <v>1.184409060596414</v>
       </c>
       <c r="O15" t="n">
-        <v>314.0121634209732</v>
+        <v>314.0121888610637</v>
       </c>
       <c r="P15" t="n">
-        <v>2908.719122717565</v>
+        <v>2908.719358371105</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.971430072504728e-05</v>
+        <v>1.971430232222616e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.67302501037995e-09</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001012857637561553</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.818902162727827e-10</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.635911761988352e-09</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.47277592788531e-08</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.322418093127909e-15</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.482745891757497e-14</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.326484717999007e-08</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.410638163868575e-05</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.975025468370973e-10</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>8.977861129303164e-14</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.80935337830799e-09</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.285843682161438e-06</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.178422174540801e-05</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.016425044715245e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1462,52 +1462,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.850605211848585e-09</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001046603462968482</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.153662860846982e-10</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.648666557803151e-09</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.490239159799003e-08</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.333322756013638e-15</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>7.691603102502266e-14</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.55755229676946e-08</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.403406257003164e-05</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.047469288568954e-10</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.048630111449911e-14</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4.847648893992581e-09</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.292909416689347e-06</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.182590569378275e-05</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.175952163711561e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.10348905920806</v>
+        <v>29.03909286817796</v>
       </c>
       <c r="C20" t="n">
-        <v>2866.916438</v>
+        <v>2593.258712</v>
       </c>
       <c r="D20" t="n">
-        <v>306830.2517988518</v>
+        <v>277542.1749430585</v>
       </c>
       <c r="E20" t="n">
-        <v>2.427836148952694</v>
+        <v>2.196090252624273</v>
       </c>
       <c r="F20" t="n">
-        <v>4.610651337073995</v>
+        <v>4.170547696954391</v>
       </c>
       <c r="G20" t="n">
-        <v>42.00067626200986</v>
+        <v>37.99155712481518</v>
       </c>
       <c r="H20" t="n">
-        <v>1.590208180091197e-05</v>
+        <v>1.438416956370027e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003159217076887473</v>
+        <v>0.0002857658179061866</v>
       </c>
       <c r="J20" t="n">
-        <v>374.8685581801229</v>
+        <v>339.085974557966</v>
       </c>
       <c r="K20" t="n">
-        <v>33256.65455980947</v>
+        <v>30082.18447739788</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7686924867965794</v>
+        <v>0.6953179596768472</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003677195467080259</v>
+        <v>0.0003326193625435829</v>
       </c>
       <c r="N20" t="n">
-        <v>14.98712676751436</v>
+        <v>13.55655035583043</v>
       </c>
       <c r="O20" t="n">
-        <v>3458.651302158944</v>
+        <v>3128.51030543145</v>
       </c>
       <c r="P20" t="n">
-        <v>36202.60915151902</v>
+        <v>32746.93686042747</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.000301122986096403</v>
+        <v>0.0002723796887581109</v>
       </c>
     </row>
     <row r="21">
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.610485779401243e-09</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>8.384665752980908e-05</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5.706717624391852e-10</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.344652525414641e-09</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.222360259805672e-08</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.182945321018301e-15</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.088350072619794e-14</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.707105730013629e-08</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.707099148858428e-06</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.544463800634384e-10</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.135157014683315e-13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5.174636306188532e-09</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.34552803315265e-07</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.173622174805282e-05</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.079141155486944e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1627,52 +1627,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.18199237064856e-08</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.999999999999997e-07</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0005793774098960676</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7.978698891487976e-10</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.869715276757678e-09</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>5.390321759862863e-08</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.200868937714045e-15</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.697619024229973e-14</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04286615863883e-07</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.262700596961206e-05</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.180658406750287e-10</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.933700929819113e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.365444263464538e-08</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>7.037754378940646e-07</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.378340685622943e-05</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.956472873829007e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.104796967335462</v>
+        <v>7.480062628687842</v>
       </c>
       <c r="C23" t="n">
-        <v>807.192494</v>
+        <v>989.0337780000001</v>
       </c>
       <c r="D23" t="n">
-        <v>67137.29357115709</v>
+        <v>82261.73013122272</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4629536997700814</v>
+        <v>0.5672461651045548</v>
       </c>
       <c r="F23" t="n">
-        <v>1.085711951003898</v>
+        <v>1.330297048972727</v>
       </c>
       <c r="G23" t="n">
-        <v>9.844051335335482</v>
+        <v>12.06168213329892</v>
       </c>
       <c r="H23" t="n">
-        <v>3.380228758568763e-06</v>
+        <v>4.14171395849416e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>4.920409312973283e-05</v>
+        <v>6.028860585658953e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>70.51258586418959</v>
+        <v>86.39739555582243</v>
       </c>
       <c r="K23" t="n">
-        <v>7046.782914169507</v>
+        <v>8634.255620750257</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1259622616680281</v>
+        <v>0.1543385654214897</v>
       </c>
       <c r="M23" t="n">
-        <v>9.167146232056606e-05</v>
+        <v>0.0001123228639855193</v>
       </c>
       <c r="N23" t="n">
-        <v>4.174450309491718</v>
+        <v>5.114854748227953</v>
       </c>
       <c r="O23" t="n">
-        <v>513.5096540866148</v>
+        <v>629.191174343053</v>
       </c>
       <c r="P23" t="n">
-        <v>9481.829397176945</v>
+        <v>11617.86020156101</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.515253294097645e-05</v>
+        <v>7.982985010373919e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.51260003350216e-08</v>
+        <v>7.5630001675108e-09</v>
       </c>
       <c r="C25" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001663476656936235</v>
+        <v>8.317383284681174e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>1.147071369496856e-09</v>
+        <v>5.73535684748428e-10</v>
       </c>
       <c r="F25" t="n">
-        <v>2.69009426889913e-09</v>
+        <v>1.345047134449565e-09</v>
       </c>
       <c r="G25" t="n">
-        <v>2.439083962873292e-08</v>
+        <v>1.219541981436646e-08</v>
       </c>
       <c r="H25" t="n">
-        <v>8.375273020238869e-15</v>
+        <v>4.187636510119435e-15</v>
       </c>
       <c r="I25" t="n">
-        <v>1.219141493397802e-13</v>
+        <v>6.095707466989011e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>1.747107075160428e-07</v>
+        <v>8.735535375802142e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>1.745998127224782e-05</v>
+        <v>8.729990636123912e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>3.120996852778665e-10</v>
+        <v>1.560498426389333e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>2.27136557889167e-13</v>
+        <v>1.135682789445835e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>1.034313460672918e-08</v>
+        <v>5.17156730336459e-09</v>
       </c>
       <c r="O25" t="n">
-        <v>1.272335057383759e-06</v>
+        <v>6.361675286918795e-07</v>
       </c>
       <c r="P25" t="n">
-        <v>2.349335373571238e-05</v>
+        <v>1.174667686785619e-05</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.614299771746303e-13</v>
+        <v>8.071498858731514e-14</v>
       </c>
     </row>
     <row r="26">
@@ -1847,52 +1847,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.506730719198401e-08</v>
+        <v>7.533653595992004e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001650894370250479</v>
+        <v>8.254471851252396e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>1.133394781476322e-09</v>
+        <v>5.666973907381612e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>2.687047174315317e-09</v>
+        <v>1.343523587157658e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>2.438910683960116e-08</v>
+        <v>1.219455341980058e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>1.017571564753768e-14</v>
+        <v>5.087857823768838e-15</v>
       </c>
       <c r="I26" t="n">
-        <v>1.212858586517865e-13</v>
+        <v>6.064292932589324e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>1.772402774469346e-07</v>
+        <v>8.862013872346728e-08</v>
       </c>
       <c r="K26" t="n">
-        <v>1.769813295245568e-05</v>
+        <v>8.849066476227839e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>3.075770469321633e-10</v>
+        <v>1.537885234660816e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>2.278543311255937e-13</v>
+        <v>1.139271655627969e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>1.026887672037376e-08</v>
+        <v>5.13443836018688e-09</v>
       </c>
       <c r="O26" t="n">
-        <v>1.265732020292047e-06</v>
+        <v>6.328660101460234e-07</v>
       </c>
       <c r="P26" t="n">
-        <v>2.305051748045537e-05</v>
+        <v>1.152525874022768e-05</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.625963273896908e-13</v>
+        <v>8.129816369484542e-14</v>
       </c>
     </row>
     <row r="27">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.978036616594695e-06</v>
+        <v>2.847250849865377e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000535</v>
+        <v>0.000306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05292025557387657</v>
+        <v>0.03026840786094623</v>
       </c>
       <c r="E27" t="n">
-        <v>3.915964531917114e-07</v>
+        <v>2.239785321059134e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>8.050140527970333e-07</v>
+        <v>4.60437944216621e-07</v>
       </c>
       <c r="G27" t="n">
-        <v>7.179479710633204e-06</v>
+        <v>4.106394002717309e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>2.492852739309077e-12</v>
+        <v>1.425818576128182e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>4.475468950547726e-11</v>
+        <v>2.559800932462812e-11</v>
       </c>
       <c r="J27" t="n">
-        <v>5.605476489219632e-05</v>
+        <v>3.206123001310668e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005391457467693212</v>
+        <v>0.003083712121708641</v>
       </c>
       <c r="L27" t="n">
-        <v>1.161094800114616e-07</v>
+        <v>6.641028202524721e-08</v>
       </c>
       <c r="M27" t="n">
-        <v>6.30163445556974e-11</v>
+        <v>3.604299333466057e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.792799403547744e-06</v>
+        <v>1.597376855113289e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0004448008844746796</v>
+        <v>0.0002544094778490691</v>
       </c>
       <c r="P27" t="n">
-        <v>0.006450196034541883</v>
+        <v>0.003689271002934236</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.845139715190866e-11</v>
+        <v>2.771238790370851e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1957,52 +1957,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.30743741082328e-07</v>
+        <v>8.240847895797432e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>1.4e-05</v>
+        <v>5.000000000000001e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0009392539640319982</v>
+        <v>0.0003354478442971423</v>
       </c>
       <c r="E28" t="n">
-        <v>6.965667622469193e-09</v>
+        <v>2.487738436596141e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>3.348002894291032e-08</v>
+        <v>1.195715319389655e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>3.561708400468399e-07</v>
+        <v>1.272038714453e-07</v>
       </c>
       <c r="H28" t="n">
-        <v>1.153423435785344e-13</v>
+        <v>4.119369413519088e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>1.80631718556106e-12</v>
+        <v>6.451132805575215e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>9.828123526051009e-07</v>
+        <v>3.51004411644679e-07</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002340548652645905</v>
+        <v>8.359102330878233e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>2.856805062028376e-09</v>
+        <v>1.020287522152992e-09</v>
       </c>
       <c r="M28" t="n">
-        <v>2.659082378215872e-12</v>
+        <v>9.496722779342405e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>1.128996029540824e-07</v>
+        <v>4.032128676931516e-08</v>
       </c>
       <c r="O28" t="n">
-        <v>6.727898699186086e-06</v>
+        <v>2.402820963995032e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0001916352884125562</v>
+        <v>6.844117443305581e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.974541655702863e-12</v>
+        <v>7.051934484653086e-13</v>
       </c>
     </row>
     <row r="29">
@@ -2012,52 +2012,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.94450873747846e-08</v>
+        <v>3.296339158318973e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002012687065782855</v>
+        <v>0.000134179137718857</v>
       </c>
       <c r="E29" t="n">
-        <v>1.492643061957686e-09</v>
+        <v>9.950953746384567e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>7.174291916337922e-09</v>
+        <v>4.782861277558614e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>7.632232286717997e-08</v>
+        <v>5.088154857811997e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>2.471621648111667e-14</v>
+        <v>1.647747765407777e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>3.870679683347617e-13</v>
+        <v>2.580453122231744e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>2.106026469868073e-07</v>
+        <v>1.404017646578715e-07</v>
       </c>
       <c r="K29" t="n">
-        <v>5.015461398526941e-05</v>
+        <v>3.343640932351293e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>6.121725132917965e-10</v>
+        <v>4.081150088611975e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>5.698033667605447e-13</v>
+        <v>3.798689111736964e-13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.419277206158908e-08</v>
+        <v>1.612851470772605e-08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.441692578397015e-06</v>
+        <v>9.611283855980099e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>4.106470465983347e-05</v>
+        <v>2.737646977322231e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.231160690791852e-13</v>
+        <v>2.820773793861234e-13</v>
       </c>
     </row>
     <row r="30">
@@ -2067,52 +2067,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.92486181062276e-06</v>
+        <v>1.027100175628746e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002530000000000001</v>
+        <v>0.000135</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006484274705205851</v>
+        <v>0.00345998847906241</v>
       </c>
       <c r="E30" t="n">
-        <v>3.359827560485839e-08</v>
+        <v>1.792793362314578e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>5.394584446187053e-07</v>
+        <v>2.878533202510878e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>6.604618239381942e-06</v>
+        <v>3.524203408365857e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>2.557130698856692e-13</v>
+        <v>1.36447685512116e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>3.053320838528991e-12</v>
+        <v>1.629242344669619e-12</v>
       </c>
       <c r="J30" t="n">
-        <v>2.762120116246538e-05</v>
+        <v>1.4738585600525e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001008622492051378</v>
+        <v>0.000538197772438482</v>
       </c>
       <c r="L30" t="n">
-        <v>4.023656377544227e-09</v>
+        <v>2.147010320033481e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>1.416886912264531e-11</v>
+        <v>7.560463761095325e-12</v>
       </c>
       <c r="N30" t="n">
-        <v>1.116575115710824e-06</v>
+        <v>5.958009510709928e-07</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0001367654795677575</v>
+        <v>7.297762743734096e-05</v>
       </c>
       <c r="P30" t="n">
-        <v>0.004598669582849151</v>
+        <v>0.002453835548160613</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.563205328497243e-11</v>
+        <v>1.367718258289043e-11</v>
       </c>
     </row>
     <row r="31">
@@ -2232,52 +2232,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.464557180936129e-08</v>
+        <v>5.408318389106359e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>7.000000000000001e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0008461752896885289</v>
+        <v>0.0004835287369648736</v>
       </c>
       <c r="E33" t="n">
-        <v>4.733911428521308e-09</v>
+        <v>2.705092244869318e-09</v>
       </c>
       <c r="F33" t="n">
-        <v>7.750837950739447e-08</v>
+        <v>4.429050257565398e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>1.274750033492179e-07</v>
+        <v>7.284285905669593e-08</v>
       </c>
       <c r="H33" t="n">
-        <v>7.013871482805949e-14</v>
+        <v>4.007926561603399e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>6.652090917849032e-13</v>
+        <v>3.801194810199447e-13</v>
       </c>
       <c r="J33" t="n">
-        <v>2.002368808297627e-06</v>
+        <v>1.144210747598644e-06</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001484365412141658</v>
+        <v>8.482088069380904e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>9.708412091916832e-10</v>
+        <v>5.547664052523903e-10</v>
       </c>
       <c r="M33" t="n">
-        <v>8.702477031755863e-13</v>
+        <v>4.972844018146207e-13</v>
       </c>
       <c r="N33" t="n">
-        <v>4.222038159969621e-08</v>
+        <v>2.412593234268354e-08</v>
       </c>
       <c r="O33" t="n">
-        <v>6.577240437031344e-06</v>
+        <v>3.758423106875053e-06</v>
       </c>
       <c r="P33" t="n">
-        <v>8.957828250224766e-05</v>
+        <v>5.118759000128436e-05</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.083980734399816e-13</v>
+        <v>4.047988991085608e-13</v>
       </c>
     </row>
     <row r="34">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.112477583659541e-08</v>
+        <v>5.408318389106359e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>6.000000000000001e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007252931054473105</v>
+        <v>0.0004835287369648736</v>
       </c>
       <c r="E34" t="n">
-        <v>4.057638367303979e-09</v>
+        <v>2.705092244869318e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>6.643575386348098e-08</v>
+        <v>4.429050257565398e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>1.092642885850439e-07</v>
+        <v>7.284285905669593e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>6.011889842405099e-14</v>
+        <v>4.007926561603399e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>5.701792215299171e-13</v>
+        <v>3.801194810199447e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>1.716316121397966e-06</v>
+        <v>1.144210747598644e-06</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001272313210407136</v>
+        <v>8.482088069380904e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>8.321496078785856e-10</v>
+        <v>5.547664052523903e-10</v>
       </c>
       <c r="M34" t="n">
-        <v>7.459266027219312e-13</v>
+        <v>4.972844018146207e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>3.618889851402532e-08</v>
+        <v>2.412593234268354e-08</v>
       </c>
       <c r="O34" t="n">
-        <v>5.637634660312581e-06</v>
+        <v>3.758423106875053e-06</v>
       </c>
       <c r="P34" t="n">
-        <v>7.678138500192656e-05</v>
+        <v>5.118759000128436e-05</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.071983486628414e-13</v>
+        <v>4.047988991085608e-13</v>
       </c>
     </row>
     <row r="35">
@@ -2342,52 +2342,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.208975784114868e-08</v>
+        <v>4.92538547046892e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>5.000000000000002e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000718338760078174</v>
+        <v>0.0004310032560469043</v>
       </c>
       <c r="E35" t="n">
-        <v>6.195491689406447e-09</v>
+        <v>3.717295013643867e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>8.625494630130519e-09</v>
+        <v>5.17529677807831e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>8.674629592423709e-08</v>
+        <v>5.204777755454224e-08</v>
       </c>
       <c r="H35" t="n">
-        <v>5.794369961720804e-14</v>
+        <v>3.476621977032482e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>1.001019857894111e-12</v>
+        <v>6.006119147364663e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>4.296134229335349e-07</v>
+        <v>2.577680537601208e-07</v>
       </c>
       <c r="K35" t="n">
-        <v>6.38293542977042e-05</v>
+        <v>3.829761257862251e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>1.524596973774653e-09</v>
+        <v>9.147581842647918e-10</v>
       </c>
       <c r="M35" t="n">
-        <v>6.522176452827873e-13</v>
+        <v>3.913305871696723e-13</v>
       </c>
       <c r="N35" t="n">
-        <v>3.029919047325987e-08</v>
+        <v>1.817951428395592e-08</v>
       </c>
       <c r="O35" t="n">
-        <v>4.024813250408523e-06</v>
+        <v>2.414887950245113e-06</v>
       </c>
       <c r="P35" t="n">
-        <v>5.9623953042489e-05</v>
+        <v>3.57743718254934e-05</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.592632344869918e-13</v>
+        <v>2.15557940692195e-13</v>
       </c>
     </row>
     <row r="36">
@@ -2397,52 +2397,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.567180627291892e-08</v>
+        <v>4.92538547046892e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000574671008062539</v>
+        <v>0.0004310032560469043</v>
       </c>
       <c r="E36" t="n">
-        <v>4.956393351525156e-09</v>
+        <v>3.717295013643867e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>6.900395704104412e-09</v>
+        <v>5.17529677807831e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>6.939703673938964e-08</v>
+        <v>5.204777755454224e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>4.635495969376641e-14</v>
+        <v>3.476621977032482e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>8.008158863152883e-13</v>
+        <v>6.006119147364663e-13</v>
       </c>
       <c r="J36" t="n">
-        <v>3.436907383468278e-07</v>
+        <v>2.577680537601208e-07</v>
       </c>
       <c r="K36" t="n">
-        <v>5.106348343816334e-05</v>
+        <v>3.829761257862251e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>1.219677579019722e-09</v>
+        <v>9.147581842647918e-10</v>
       </c>
       <c r="M36" t="n">
-        <v>5.217741162262296e-13</v>
+        <v>3.913305871696723e-13</v>
       </c>
       <c r="N36" t="n">
-        <v>2.423935237860788e-08</v>
+        <v>1.817951428395592e-08</v>
       </c>
       <c r="O36" t="n">
-        <v>3.219850600326817e-06</v>
+        <v>2.414887950245113e-06</v>
       </c>
       <c r="P36" t="n">
-        <v>4.769916243399118e-05</v>
+        <v>3.57743718254934e-05</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.874105875895933e-13</v>
+        <v>2.15557940692195e-13</v>
       </c>
     </row>
     <row r="37">
@@ -2452,52 +2452,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.009177375571555e-08</v>
+        <v>4.006118250381036e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>1.2e-05</v>
+        <v>8e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003436316625965166</v>
+        <v>0.0002290877750643443</v>
       </c>
       <c r="E37" t="n">
-        <v>1.954884653942237e-09</v>
+        <v>1.303256435961491e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>1.891680987639978e-08</v>
+        <v>1.261120658426652e-08</v>
       </c>
       <c r="G37" t="n">
-        <v>1.822281626535825e-07</v>
+        <v>1.21485441769055e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>1.782794612072325e-14</v>
+        <v>1.18852974138155e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>3.28112550676581e-13</v>
+        <v>2.18741700451054e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>5.944786879043022e-07</v>
+        <v>3.963191252695347e-07</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0006601155395332964</v>
+        <v>0.0004400770263555309</v>
       </c>
       <c r="L37" t="n">
-        <v>2.938971779850243e-10</v>
+        <v>1.959314519900162e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>1.17724326812044e-12</v>
+        <v>7.848288454136268e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>4.793883138839019e-08</v>
+        <v>3.195922092559345e-08</v>
       </c>
       <c r="O37" t="n">
-        <v>4.778787125130277e-06</v>
+        <v>3.185858083420184e-06</v>
       </c>
       <c r="P37" t="n">
-        <v>9.714404756445372e-05</v>
+        <v>6.476269837630247e-05</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.139711631374885e-12</v>
+        <v>7.598077542499231e-13</v>
       </c>
     </row>
     <row r="38">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.039876424056528e-07</v>
+        <v>6.932509493710187e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.2e-05</v>
+        <v>8e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006340635724535819</v>
+        <v>0.0004227090483023879</v>
       </c>
       <c r="E38" t="n">
-        <v>5.6166762694617e-09</v>
+        <v>3.7444508463078e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>1.489015417472364e-08</v>
+        <v>9.926769449815757e-09</v>
       </c>
       <c r="G38" t="n">
-        <v>1.535041919500137e-07</v>
+        <v>1.023361279666758e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>4.489245754638377e-14</v>
+        <v>2.992830503092252e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>6.468592068733798e-13</v>
+        <v>4.312394712489198e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>9.337959768421731e-07</v>
+        <v>6.225306512281154e-07</v>
       </c>
       <c r="K38" t="n">
-        <v>9.59611118532312e-05</v>
+        <v>6.39740745688208e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>6.908343410898721e-10</v>
+        <v>4.605562273932481e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>1.180553384829614e-12</v>
+        <v>7.870355898864094e-13</v>
       </c>
       <c r="N38" t="n">
-        <v>5.095348603587295e-08</v>
+        <v>3.396899069058197e-08</v>
       </c>
       <c r="O38" t="n">
-        <v>4.737623158537138e-06</v>
+        <v>3.158415439024759e-06</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0001394846881260605</v>
+        <v>9.298979208404034e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>8.630425488317098e-13</v>
+        <v>5.753616992211398e-13</v>
       </c>
     </row>
     <row r="39">
@@ -2562,52 +2562,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.532200553851507e-08</v>
+        <v>6.065945806996414e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1e-05</v>
+        <v>7e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0005812249414157833</v>
+        <v>0.0003698704172645894</v>
       </c>
       <c r="E39" t="n">
-        <v>5.148619913673225e-09</v>
+        <v>3.276394490519325e-09</v>
       </c>
       <c r="F39" t="n">
-        <v>1.364930799349667e-08</v>
+        <v>8.685923268588789e-09</v>
       </c>
       <c r="G39" t="n">
-        <v>1.407121759541792e-07</v>
+        <v>8.954411197084133e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>4.115141941751846e-14</v>
+        <v>2.61872669020572e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>5.929542729672648e-13</v>
+        <v>3.773345373428049e-13</v>
       </c>
       <c r="J39" t="n">
-        <v>8.559796454386587e-07</v>
+        <v>5.44714319824601e-07</v>
       </c>
       <c r="K39" t="n">
-        <v>8.79643525321286e-05</v>
+        <v>5.597731524771821e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>6.33264812665716e-10</v>
+        <v>4.02986698969092e-10</v>
       </c>
       <c r="M39" t="n">
-        <v>1.082173936093813e-12</v>
+        <v>6.886561411506083e-13</v>
       </c>
       <c r="N39" t="n">
-        <v>4.67073621995502e-08</v>
+        <v>2.972286685425922e-08</v>
       </c>
       <c r="O39" t="n">
-        <v>4.342821228659043e-06</v>
+        <v>2.763613509146664e-06</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001278609641155555</v>
+        <v>8.13660680735353e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.911223364290673e-13</v>
+        <v>5.034414868184974e-13</v>
       </c>
     </row>
     <row r="40">
@@ -2672,52 +2672,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.302682055674237</v>
+        <v>1.299750768424319</v>
       </c>
       <c r="C41" t="n">
-        <v>120.312297</v>
+        <v>120.041571</v>
       </c>
       <c r="D41" t="n">
-        <v>11648.30026454967</v>
+        <v>11622.08933003962</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09978505218850919</v>
+        <v>0.09956051647011305</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0778218683808809</v>
+        <v>0.07764675408529662</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9632723046371318</v>
+        <v>0.961104755147613</v>
       </c>
       <c r="H41" t="n">
-        <v>3.619131802768528e-07</v>
+        <v>3.610988054366515e-07</v>
       </c>
       <c r="I41" t="n">
-        <v>1.730006276872529e-05</v>
+        <v>1.726113427255398e-05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.645837259051567</v>
+        <v>3.63763341819402</v>
       </c>
       <c r="K41" t="n">
-        <v>621.9731450019209</v>
+        <v>620.5735848085535</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03038384858921502</v>
+        <v>0.03031547903765401</v>
       </c>
       <c r="M41" t="n">
-        <v>5.10493852794249e-06</v>
+        <v>5.093451426271446e-06</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3134634441429199</v>
+        <v>0.3127580906047106</v>
       </c>
       <c r="O41" t="n">
-        <v>30.14799409740887</v>
+        <v>30.08015526419288</v>
       </c>
       <c r="P41" t="n">
-        <v>434.4724312589378</v>
+        <v>433.4947840328607</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0002484832776033317</v>
+        <v>0.0002479241420412167</v>
       </c>
     </row>
     <row r="42">
@@ -2727,52 +2727,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.592624941777886e-06</v>
+        <v>5.397384877726688e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000391</v>
+        <v>0.00022</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0786623799276889</v>
+        <v>0.04426016261916</v>
       </c>
       <c r="E42" t="n">
-        <v>6.550111341847888e-07</v>
+        <v>3.685484642471958e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>7.032091359773469e-07</v>
+        <v>3.956675445396837e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>8.390719414241637e-06</v>
+        <v>4.721120898038773e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>3.955278489794755e-12</v>
+        <v>2.225476388119811e-12</v>
       </c>
       <c r="I42" t="n">
-        <v>1.095977605966547e-10</v>
+        <v>6.166625915924303e-11</v>
       </c>
       <c r="J42" t="n">
-        <v>2.844770650593195e-05</v>
+        <v>1.600638217725071e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>0.005523558869302847</v>
+        <v>0.003107884785796999</v>
       </c>
       <c r="L42" t="n">
-        <v>1.912465145732524e-07</v>
+        <v>1.07606734542495e-07</v>
       </c>
       <c r="M42" t="n">
-        <v>4.9518185123324e-11</v>
+        <v>2.7861894442791e-11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.445339527216836e-06</v>
+        <v>1.375894363139908e-06</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0002475448116980307</v>
+        <v>0.0001392835257635978</v>
       </c>
       <c r="P42" t="n">
-        <v>0.004353257610592243</v>
+        <v>0.002449403259156761</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.277062811314886e-11</v>
+        <v>1.843871658540345e-11</v>
       </c>
     </row>
     <row r="43">
@@ -2782,52 +2782,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3795961189112039</v>
+        <v>0.3877230820441817</v>
       </c>
       <c r="C43" t="n">
-        <v>27.494103</v>
+        <v>28.08273799999999</v>
       </c>
       <c r="D43" t="n">
-        <v>1977.911358831185</v>
+        <v>2020.257452199119</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01610528322894013</v>
+        <v>0.01645008929129711</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0552346306411659</v>
+        <v>0.05641717646953725</v>
       </c>
       <c r="G43" t="n">
-        <v>1.091163536010019</v>
+        <v>1.114524801806515</v>
       </c>
       <c r="H43" t="n">
-        <v>1.936002492717748e-07</v>
+        <v>1.977451338213849e-07</v>
       </c>
       <c r="I43" t="n">
-        <v>2.070588130179527e-06</v>
+        <v>2.114918386889783e-06</v>
       </c>
       <c r="J43" t="n">
-        <v>2.144610134278726</v>
+        <v>2.190525165090647</v>
       </c>
       <c r="K43" t="n">
-        <v>297.3203660346203</v>
+        <v>303.685846430936</v>
       </c>
       <c r="L43" t="n">
-        <v>0.003799013570213579</v>
+        <v>0.003880348551496752</v>
       </c>
       <c r="M43" t="n">
-        <v>4.755974717368885e-06</v>
+        <v>4.857797758395478e-06</v>
       </c>
       <c r="N43" t="n">
-        <v>0.172833786376925</v>
+        <v>0.1765340713378121</v>
       </c>
       <c r="O43" t="n">
-        <v>16.51354810507273</v>
+        <v>16.8670949143223</v>
       </c>
       <c r="P43" t="n">
-        <v>362.9510919016953</v>
+        <v>370.7216933278102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.685226030034099e-06</v>
+        <v>2.742715376902011e-06</v>
       </c>
     </row>
     <row r="44">
@@ -3002,52 +3002,52 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.772910357782167e-08</v>
+        <v>1.848606905188111e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001288060516319035</v>
+        <v>8.587070108793563e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>1.134494026799149e-09</v>
+        <v>7.563293511994324e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>5.023559583567748e-09</v>
+        <v>3.349039722378499e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>4.413940184843437e-08</v>
+        <v>2.942626789895625e-08</v>
       </c>
       <c r="H47" t="n">
-        <v>2.768451473797172e-14</v>
+        <v>1.845634315864781e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>1.693995508440227e-13</v>
+        <v>1.129330338960152e-13</v>
       </c>
       <c r="J47" t="n">
-        <v>2.319999337152604e-07</v>
+        <v>1.546666224768403e-07</v>
       </c>
       <c r="K47" t="n">
-        <v>7.591410418677687e-05</v>
+        <v>5.060940279118458e-05</v>
       </c>
       <c r="L47" t="n">
-        <v>9.11551125372607e-11</v>
+        <v>6.077007502484048e-11</v>
       </c>
       <c r="M47" t="n">
-        <v>3.815546808029771e-13</v>
+        <v>2.543697872019847e-13</v>
       </c>
       <c r="N47" t="n">
-        <v>1.682901248991656e-08</v>
+        <v>1.121934165994437e-08</v>
       </c>
       <c r="O47" t="n">
-        <v>2.567820640911548e-06</v>
+        <v>1.711880427274365e-06</v>
       </c>
       <c r="P47" t="n">
-        <v>3.669296257634205e-05</v>
+        <v>2.44619750508947e-05</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.811141060798245e-13</v>
+        <v>1.874094040532163e-13</v>
       </c>
     </row>
     <row r="48">
@@ -3112,52 +3112,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3539703428319797</v>
+        <v>0.1175668863049928</v>
       </c>
       <c r="C49" t="n">
-        <v>21.47657299999999</v>
+        <v>7.133178999999997</v>
       </c>
       <c r="D49" t="n">
-        <v>1440.854023148041</v>
+        <v>478.5619037071286</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01068561922769258</v>
+        <v>0.003549096714684084</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05135973468818041</v>
+        <v>0.01705850281249714</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5463806461955188</v>
+        <v>0.1814735969024623</v>
       </c>
       <c r="H49" t="n">
-        <v>1.769398758468216e-07</v>
+        <v>5.876839878751396e-08</v>
       </c>
       <c r="I49" t="n">
-        <v>2.770964492632824e-06</v>
+        <v>9.203417010988724e-07</v>
       </c>
       <c r="J49" t="n">
-        <v>1.507674374001798</v>
+        <v>0.5007554596102354</v>
       </c>
       <c r="K49" t="n">
-        <v>359.0497428471525</v>
+        <v>119.2539464109431</v>
       </c>
       <c r="L49" t="n">
-        <v>0.004382455890101564</v>
+        <v>0.00145557870539675</v>
       </c>
       <c r="M49" t="n">
-        <v>4.079141200626199e-06</v>
+        <v>1.354836469968537e-06</v>
       </c>
       <c r="N49" t="n">
-        <v>0.173192611751026</v>
+        <v>0.05752379120717127</v>
       </c>
       <c r="O49" t="n">
-        <v>10.32087196783387</v>
+        <v>3.427950408225802</v>
       </c>
       <c r="P49" t="n">
-        <v>293.9763757834509</v>
+        <v>97.64062964024198</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.029027715017388e-06</v>
+        <v>1.006054219506065e-06</v>
       </c>
     </row>
     <row r="50">
@@ -3167,52 +3167,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.297269906528586e-08</v>
+        <v>8.648466043523903e-09</v>
       </c>
       <c r="C50" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>8.092101241116158e-05</v>
+        <v>5.394734160744105e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>7.491732389211267e-10</v>
+        <v>4.994488259474177e-10</v>
       </c>
       <c r="F50" t="n">
-        <v>3.825663452571911e-09</v>
+        <v>2.550442301714607e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>3.628882112136926e-08</v>
+        <v>2.419254741424617e-08</v>
       </c>
       <c r="H50" t="n">
-        <v>1.441742238075977e-14</v>
+        <v>9.611614920506511e-15</v>
       </c>
       <c r="I50" t="n">
-        <v>7.476519535777174e-14</v>
+        <v>4.984346357184782e-14</v>
       </c>
       <c r="J50" t="n">
-        <v>1.583522193136638e-07</v>
+        <v>1.055681462091092e-07</v>
       </c>
       <c r="K50" t="n">
-        <v>3.571122257543632e-05</v>
+        <v>2.380748171695754e-05</v>
       </c>
       <c r="L50" t="n">
-        <v>3.113241508427385e-11</v>
+        <v>2.07549433895159e-11</v>
       </c>
       <c r="M50" t="n">
-        <v>3.628213407389698e-13</v>
+        <v>2.418808938259798e-13</v>
       </c>
       <c r="N50" t="n">
-        <v>1.29041264932377e-08</v>
+        <v>8.602750995491797e-09</v>
       </c>
       <c r="O50" t="n">
-        <v>1.414453691053961e-06</v>
+        <v>9.42969127369307e-07</v>
       </c>
       <c r="P50" t="n">
-        <v>3.231874318001194e-05</v>
+        <v>2.154582878667463e-05</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.471735160443621e-13</v>
+        <v>2.314490106962414e-13</v>
       </c>
     </row>
     <row r="51">
@@ -3222,52 +3222,52 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.984764144712209e-07</v>
+        <v>1.368802858422213e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>2.9e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001365186048276317</v>
+        <v>0.000941507619500908</v>
       </c>
       <c r="E51" t="n">
-        <v>1.118908351693831e-08</v>
+        <v>7.716609322026419e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>4.461054669915225e-08</v>
+        <v>3.076589427527741e-08</v>
       </c>
       <c r="G51" t="n">
-        <v>4.388038824035606e-07</v>
+        <v>3.026233671748694e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>2.041426182087693e-13</v>
+        <v>1.40788012557772e-13</v>
       </c>
       <c r="I51" t="n">
-        <v>2.923654348757113e-12</v>
+        <v>2.016313343970423e-12</v>
       </c>
       <c r="J51" t="n">
-        <v>1.552060337942283e-06</v>
+        <v>1.070386439960195e-06</v>
       </c>
       <c r="K51" t="n">
-        <v>0.000924702196530727</v>
+        <v>0.0006377256527798118</v>
       </c>
       <c r="L51" t="n">
-        <v>1.685802037973491e-09</v>
+        <v>1.162622095154132e-09</v>
       </c>
       <c r="M51" t="n">
-        <v>4.664765134293337e-12</v>
+        <v>3.217079402960922e-12</v>
       </c>
       <c r="N51" t="n">
-        <v>1.432756739002743e-07</v>
+        <v>9.881080958639611e-08</v>
       </c>
       <c r="O51" t="n">
-        <v>1.288360100942142e-05</v>
+        <v>8.885242075463052e-06</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0003015935240373507</v>
+        <v>0.0002079955338188626</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.709462734770614e-12</v>
+        <v>1.868594989496975e-12</v>
       </c>
     </row>
     <row r="52">
@@ -3387,52 +3387,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2532566092835785</v>
+        <v>0.3648716788875316</v>
       </c>
       <c r="C54" t="n">
-        <v>23.39011599999999</v>
+        <v>33.698591</v>
       </c>
       <c r="D54" t="n">
-        <v>2264.56564444653</v>
+        <v>3262.60337677911</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01939937981364684</v>
+        <v>0.02794906044902647</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01512948031210422</v>
+        <v>0.02179733392857704</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1872713887679315</v>
+        <v>0.2698054997287111</v>
       </c>
       <c r="H54" t="n">
-        <v>7.036015004022819e-08</v>
+        <v>1.013692244580696e-07</v>
       </c>
       <c r="I54" t="n">
-        <v>3.363334297970935e-06</v>
+        <v>4.845620556289448e-06</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7087933530712839</v>
+        <v>1.021172246801504</v>
       </c>
       <c r="K54" t="n">
-        <v>120.918845149135</v>
+        <v>174.2101110944913</v>
       </c>
       <c r="L54" t="n">
-        <v>0.005906975103535553</v>
+        <v>0.00851029289727453</v>
       </c>
       <c r="M54" t="n">
-        <v>9.924596846608624e-07</v>
+        <v>1.429855798807299e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>0.06094095535606318</v>
+        <v>0.08779880910779722</v>
       </c>
       <c r="O54" t="n">
-        <v>5.861122235125379</v>
+        <v>8.444231785874686</v>
       </c>
       <c r="P54" t="n">
-        <v>84.46651605320589</v>
+        <v>121.692537893866</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.830805189599304e-05</v>
+        <v>6.959834157512706e-05</v>
       </c>
     </row>
     <row r="55">
@@ -3442,52 +3442,52 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8.341412992850336e-07</v>
+        <v>4.661377848945776e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>3.4e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006840206950233818</v>
+        <v>0.003822468589836545</v>
       </c>
       <c r="E55" t="n">
-        <v>5.695748992911207e-08</v>
+        <v>3.182918554862146e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>6.11486205197693e-08</v>
+        <v>3.417128793751814e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>7.296277751514467e-07</v>
+        <v>4.077331684669849e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>3.439372599821526e-13</v>
+        <v>1.922002335194382e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>9.530240051883013e-12</v>
+        <v>5.325722381934625e-12</v>
       </c>
       <c r="J55" t="n">
-        <v>2.473713609211474e-06</v>
+        <v>1.382369369853471e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0004803094668958998</v>
+        <v>0.0002684082315006499</v>
       </c>
       <c r="L55" t="n">
-        <v>1.663013170202195e-08</v>
+        <v>9.293308892306385e-09</v>
       </c>
       <c r="M55" t="n">
-        <v>4.305929141158608e-12</v>
+        <v>2.406254520059223e-12</v>
       </c>
       <c r="N55" t="n">
-        <v>2.126382197579858e-07</v>
+        <v>1.18827240452992e-07</v>
       </c>
       <c r="O55" t="n">
-        <v>2.152563579982875e-05</v>
+        <v>1.202903177049254e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0003785441400514994</v>
+        <v>0.0002115393723817202</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.849619835925988e-12</v>
+        <v>1.592434614193935e-12</v>
       </c>
     </row>
     <row r="56">
@@ -3497,52 +3497,52 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.142436236559469e-05</v>
+        <v>1.660105518990193e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002379</v>
+        <v>0.0007679999999999992</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4625111886462282</v>
+        <v>0.1493100432451883</v>
       </c>
       <c r="E56" t="n">
-        <v>4.121530477881268e-06</v>
+        <v>1.33053190710921e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>5.119478022348221e-06</v>
+        <v>1.652694040001442e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>5.104754387062947e-05</v>
+        <v>1.647940886618049e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>3.34106457535568e-11</v>
+        <v>1.078578223570054e-11</v>
       </c>
       <c r="I56" t="n">
-        <v>6.975720889225796e-10</v>
+        <v>2.251935116824466e-10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0001884497005249882</v>
+        <v>6.08362211026443e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03829784221263664</v>
+        <v>0.01236349004594573</v>
       </c>
       <c r="L56" t="n">
-        <v>1.054198354192505e-06</v>
+        <v>3.403212845816909e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>3.598345185883558e-10</v>
+        <v>1.161634763664805e-10</v>
       </c>
       <c r="N56" t="n">
-        <v>1.824037276982881e-05</v>
+        <v>5.88844316403048e-06</v>
       </c>
       <c r="O56" t="n">
-        <v>0.002447657887008816</v>
+        <v>0.0007901644628931352</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02763661174037672</v>
+        <v>0.008921781343677722</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.873342081558048e-10</v>
+        <v>6.04761125950643e-11</v>
       </c>
     </row>
     <row r="57">
@@ -3662,52 +3662,52 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.008352859827522255</v>
+        <v>0.007971057174111788</v>
       </c>
       <c r="C59" t="n">
-        <v>0.386421</v>
+        <v>0.368758</v>
       </c>
       <c r="D59" t="n">
-        <v>75.12569820423045</v>
+        <v>71.69176162370991</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0006694602474961576</v>
+        <v>0.0006388597460960663</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0008315568797283832</v>
+        <v>0.0007935470687537144</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008291653194633262</v>
+        <v>0.007912648248274735</v>
       </c>
       <c r="H59" t="n">
-        <v>5.426891611069834e-09</v>
+        <v>5.178832663636007e-09</v>
       </c>
       <c r="I59" t="n">
-        <v>1.13306643200315e-07</v>
+        <v>1.08127485652337e-07</v>
       </c>
       <c r="J59" t="n">
-        <v>0.03060988723268875</v>
+        <v>0.02921073336115748</v>
       </c>
       <c r="K59" t="n">
-        <v>6.2207189935474</v>
+        <v>5.936374820784978</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0001712334519652887</v>
+        <v>0.0001634065055465824</v>
       </c>
       <c r="M59" t="n">
-        <v>5.844792539194247e-08</v>
+        <v>5.577631669003993e-08</v>
       </c>
       <c r="N59" t="n">
-        <v>0.002962783979020606</v>
+        <v>0.002827357453491608</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3975731014526416</v>
+        <v>0.3794003476660772</v>
       </c>
       <c r="P59" t="n">
-        <v>4.48901519349648</v>
+        <v>4.283825839494683</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.042869779309552e-08</v>
+        <v>2.903782594834731e-08</v>
       </c>
     </row>
     <row r="60">
@@ -3717,52 +3717,52 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.550080353849467</v>
+        <v>5.240320772495536</v>
       </c>
       <c r="C60" t="n">
-        <v>729.4914999999999</v>
+        <v>688.777318</v>
       </c>
       <c r="D60" t="n">
-        <v>18696.53470795519</v>
+        <v>17653.04877718149</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09687611252332581</v>
+        <v>0.09146928917209121</v>
       </c>
       <c r="F60" t="n">
-        <v>1.555455928666267</v>
+        <v>1.468643243703252</v>
       </c>
       <c r="G60" t="n">
-        <v>19.0435291161031</v>
+        <v>17.98067682741253</v>
       </c>
       <c r="H60" t="n">
-        <v>7.373142724130656e-07</v>
+        <v>6.961634879581088e-07</v>
       </c>
       <c r="I60" t="n">
-        <v>8.803840310198918e-06</v>
+        <v>8.312482759510017e-06</v>
       </c>
       <c r="J60" t="n">
-        <v>79.64202161189118</v>
+        <v>75.19706267439231</v>
       </c>
       <c r="K60" t="n">
-        <v>2908.227409724467</v>
+        <v>2745.914209287025</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01160167243612369</v>
+        <v>0.01095416303667391</v>
       </c>
       <c r="M60" t="n">
-        <v>4.085402999834917e-05</v>
+        <v>3.857389594224812e-05</v>
       </c>
       <c r="N60" t="n">
-        <v>3.219494292579299</v>
+        <v>3.039808749189096</v>
       </c>
       <c r="O60" t="n">
-        <v>394.3448807830136</v>
+        <v>372.3358111132945</v>
       </c>
       <c r="P60" t="n">
-        <v>13259.64573911854</v>
+        <v>12519.60198277869</v>
       </c>
       <c r="Q60" t="n">
-        <v>7.390658102352668e-05</v>
+        <v>6.97817269425818e-05</v>
       </c>
     </row>
     <row r="61">
@@ -3772,52 +3772,52 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.985630440226438e-07</v>
+        <v>2.517240278037751e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003623541800367315</v>
+        <v>0.002288552716021462</v>
       </c>
       <c r="E61" t="n">
-        <v>3.048940081328435e-08</v>
+        <v>1.925646367154801e-08</v>
       </c>
       <c r="F61" t="n">
-        <v>3.835455367982688e-08</v>
+        <v>2.422392863989066e-08</v>
       </c>
       <c r="G61" t="n">
-        <v>4.518371368024809e-07</v>
+        <v>2.853708232436721e-07</v>
       </c>
       <c r="H61" t="n">
-        <v>2.117027117781362e-13</v>
+        <v>1.337069758598755e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>4.552566751547554e-12</v>
+        <v>2.875305316766876e-12</v>
       </c>
       <c r="J61" t="n">
-        <v>2.861599223896344e-06</v>
+        <v>1.807325825618743e-06</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0007447296556442585</v>
+        <v>0.0004703555719858475</v>
       </c>
       <c r="L61" t="n">
-        <v>9.075315127968194e-09</v>
+        <v>5.731777975558859e-09</v>
       </c>
       <c r="M61" t="n">
-        <v>3.177557395167389e-12</v>
+        <v>2.006878354842561e-12</v>
       </c>
       <c r="N61" t="n">
-        <v>1.275231620046628e-07</v>
+        <v>8.054094442399754e-08</v>
       </c>
       <c r="O61" t="n">
-        <v>1.558149964933133e-05</v>
+        <v>9.840947146946106e-06</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0002440577043748757</v>
+        <v>0.0001541417080262373</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.801306923124276e-12</v>
+        <v>1.13766753039428e-12</v>
       </c>
     </row>
     <row r="62">
@@ -3882,52 +3882,52 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.85167577549507</v>
+        <v>1.861410175989317</v>
       </c>
       <c r="C63" t="n">
-        <v>22.045144</v>
+        <v>22.16103699999995</v>
       </c>
       <c r="D63" t="n">
-        <v>17274.23498909285</v>
+        <v>17365.04695727913</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1443512558076241</v>
+        <v>0.1451101213468697</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08819059124363784</v>
+        <v>0.08865421589453576</v>
       </c>
       <c r="G63" t="n">
-        <v>1.229702145110944</v>
+        <v>1.236166782888011</v>
       </c>
       <c r="H63" t="n">
-        <v>7.61702217167111e-07</v>
+        <v>7.657065437006146e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>2.566642794619091e-05</v>
+        <v>2.580135831153425e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>2.498483098968697</v>
+        <v>2.511617814794942</v>
       </c>
       <c r="K63" t="n">
-        <v>924.4504469374774</v>
+        <v>929.3103533026559</v>
       </c>
       <c r="L63" t="n">
-        <v>0.04608675777863109</v>
+        <v>0.04632903937222088</v>
       </c>
       <c r="M63" t="n">
-        <v>4.650708980047526e-06</v>
+        <v>4.675158111149795e-06</v>
       </c>
       <c r="N63" t="n">
-        <v>0.3552567062409982</v>
+        <v>0.3571243177864873</v>
       </c>
       <c r="O63" t="n">
-        <v>28.62448385839756</v>
+        <v>28.77496494882726</v>
       </c>
       <c r="P63" t="n">
-        <v>270.0205805901581</v>
+        <v>271.4400993352532</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.022807200295148e-06</v>
+        <v>3.038698327831609e-06</v>
       </c>
     </row>
     <row r="64">
@@ -3937,52 +3937,52 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.009380371838353965</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9780539999999958</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>49.07930192835439</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0003986310868664362</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.002282367706635338</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02333325227219655</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.48065099180251e-09</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>5.70103950011645e-08</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0532857147471841</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>124.5930412698017</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>6.437040573525955e-05</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.80885974763644e-07</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.006840621754919501</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.3878906874393227</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>10.05854598831427</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>8.967952553021836e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3992,52 +3992,52 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.039173177284942e-07</v>
+        <v>8.313385418279534e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>1e-05</v>
+        <v>8.000000000000001e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0007165177550814087</v>
+        <v>0.0005732142040651269</v>
       </c>
       <c r="E65" t="n">
-        <v>5.062562463547735e-09</v>
+        <v>4.050049970838188e-09</v>
       </c>
       <c r="F65" t="n">
-        <v>2.066346146428269e-08</v>
+        <v>1.653076917142615e-08</v>
       </c>
       <c r="G65" t="n">
-        <v>1.410726598983848e-07</v>
+        <v>1.128581279187078e-07</v>
       </c>
       <c r="H65" t="n">
-        <v>2.763558918599769e-13</v>
+        <v>2.210847134879815e-13</v>
       </c>
       <c r="I65" t="n">
-        <v>7.822167689138937e-13</v>
+        <v>6.257734151311149e-13</v>
       </c>
       <c r="J65" t="n">
-        <v>2.053161206222725e-06</v>
+        <v>1.642528964978179e-06</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0001382774886165298</v>
+        <v>0.0001106219908932238</v>
       </c>
       <c r="L65" t="n">
-        <v>1.037028178742803e-09</v>
+        <v>8.296225429942422e-10</v>
       </c>
       <c r="M65" t="n">
-        <v>1.252756948082101e-12</v>
+        <v>1.002205558465681e-12</v>
       </c>
       <c r="N65" t="n">
-        <v>5.138613303434421e-08</v>
+        <v>4.110890642747536e-08</v>
       </c>
       <c r="O65" t="n">
-        <v>8.762324778199314e-06</v>
+        <v>7.009859822559451e-06</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0001387042525989143</v>
+        <v>0.0001109634020791315</v>
       </c>
       <c r="Q65" t="n">
-        <v>7.683742347095314e-13</v>
+        <v>6.14699387767625e-13</v>
       </c>
     </row>
     <row r="66">
@@ -4047,52 +4047,52 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.008164343214578394</v>
+        <v>3.591046539976056e-06</v>
       </c>
       <c r="C66" t="n">
-        <v>1.073104999999999</v>
+        <v>0.000472</v>
       </c>
       <c r="D66" t="n">
-        <v>27.50319212462414</v>
+        <v>0.01209714490457374</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0001425078163753022</v>
+        <v>6.268136792685032e-08</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002288124720207724</v>
+        <v>1.006420497470468e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02801363184099586</v>
+        <v>1.232165932406433e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>1.084612544899845e-09</v>
+        <v>4.77061537494213e-13</v>
       </c>
       <c r="I66" t="n">
-        <v>1.295072671316131e-08</v>
+        <v>5.696313975437766e-12</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1171559251914914</v>
+        <v>5.153046224776137e-05</v>
       </c>
       <c r="K66" t="n">
-        <v>4.278094226611804</v>
+        <v>0.001881698878451571</v>
       </c>
       <c r="L66" t="n">
-        <v>1.70664259961446e-05</v>
+        <v>7.506584230042969e-09</v>
       </c>
       <c r="M66" t="n">
-        <v>6.009756640259422e-08</v>
+        <v>2.643362144620004e-11</v>
       </c>
       <c r="N66" t="n">
-        <v>0.00473597762665953</v>
+        <v>2.083096658559321e-06</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5800937547492404</v>
+        <v>0.0002551514085216653</v>
       </c>
       <c r="P66" t="n">
-        <v>19.50535700673251</v>
+        <v>0.008579336138754133</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.0871891122679e-07</v>
+        <v>4.781948280834113e-11</v>
       </c>
     </row>
     <row r="67">
@@ -4102,52 +4102,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.636206180724545e-06</v>
+        <v>2.601148287305686e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>7.8e-05</v>
+        <v>0.000124</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01487559265413955</v>
+        <v>0.02364837806555518</v>
       </c>
       <c r="E67" t="n">
-        <v>1.251670138650623e-07</v>
+        <v>1.989834579393298e-07</v>
       </c>
       <c r="F67" t="n">
-        <v>1.574555361592895e-07</v>
+        <v>2.503139292788705e-07</v>
       </c>
       <c r="G67" t="n">
-        <v>1.854910351083874e-06</v>
+        <v>2.94883184018462e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>8.690953430892052e-13</v>
+        <v>1.38163875055207e-12</v>
       </c>
       <c r="I67" t="n">
-        <v>1.868948455898613e-11</v>
+        <v>2.971148827326001e-11</v>
       </c>
       <c r="J67" t="n">
-        <v>1.174761786652185e-05</v>
+        <v>1.867570019806038e-05</v>
       </c>
       <c r="K67" t="n">
-        <v>0.003057311217908012</v>
+        <v>0.004860340910520428</v>
       </c>
       <c r="L67" t="n">
-        <v>3.725655684113269e-08</v>
+        <v>5.922837241410838e-08</v>
       </c>
       <c r="M67" t="n">
-        <v>1.304470930647669e-11</v>
+        <v>2.073774300003987e-11</v>
       </c>
       <c r="N67" t="n">
-        <v>5.235161387559853e-07</v>
+        <v>8.322564257146434e-07</v>
       </c>
       <c r="O67" t="n">
-        <v>6.396615645514982e-05</v>
+        <v>0.00010168978718511</v>
       </c>
       <c r="P67" t="n">
-        <v>0.001001921102170544</v>
+        <v>0.001592797649604455</v>
       </c>
       <c r="Q67" t="n">
-        <v>7.394838947562825e-12</v>
+        <v>1.175589781407423e-11</v>
       </c>
     </row>
     <row r="68">
@@ -4267,52 +4267,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1689613041928936</v>
+        <v>0.0197908379922079</v>
       </c>
       <c r="C70" t="n">
-        <v>16.4146</v>
+        <v>1.922680999999994</v>
       </c>
       <c r="D70" t="n">
-        <v>880.3016951452912</v>
+        <v>103.1118238351004</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007362473160497275</v>
+        <v>0.0008623839300804174</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04272286283836103</v>
+        <v>0.005004230175875293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4222110605171184</v>
+        <v>0.0494545821430989</v>
       </c>
       <c r="H70" t="n">
-        <v>5.507213479122289e-08</v>
+        <v>6.450729667035621e-09</v>
       </c>
       <c r="I70" t="n">
-        <v>9.603724593676431e-07</v>
+        <v>1.124907022132391e-07</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8994538582487548</v>
+        <v>0.1053551620893332</v>
       </c>
       <c r="K70" t="n">
-        <v>682.1007339487102</v>
+        <v>79.89607552113583</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001227392110321375</v>
+        <v>0.0001437673467562295</v>
       </c>
       <c r="M70" t="n">
-        <v>2.768427651315419e-06</v>
+        <v>3.242724918705765e-07</v>
       </c>
       <c r="N70" t="n">
-        <v>0.119536523051446</v>
+        <v>0.01400159624219149</v>
       </c>
       <c r="O70" t="n">
-        <v>8.575204506099727</v>
+        <v>1.004434026719645</v>
       </c>
       <c r="P70" t="n">
-        <v>167.9533642822954</v>
+        <v>19.67277560169892</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.508536740239293e-06</v>
+        <v>1.766984835609772e-07</v>
       </c>
     </row>
     <row r="71">
@@ -4322,52 +4322,52 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01751423647632865</v>
+        <v>0.0261078134732619</v>
       </c>
       <c r="C71" t="n">
-        <v>3.615162</v>
+        <v>5.388986</v>
       </c>
       <c r="D71" t="n">
-        <v>128.1270629004444</v>
+        <v>190.9941928443633</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001146900966634648</v>
+        <v>0.001709642127401369</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003867638215017128</v>
+        <v>0.00576534279619898</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03857897394693559</v>
+        <v>0.0575082252176806</v>
       </c>
       <c r="H71" t="n">
-        <v>5.954944285803978e-08</v>
+        <v>8.876811436659724e-08</v>
       </c>
       <c r="I71" t="n">
-        <v>6.427340438044585e-07</v>
+        <v>9.58099461043686e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2459395665001421</v>
+        <v>0.366612860147162</v>
       </c>
       <c r="K71" t="n">
-        <v>26.95076146195259</v>
+        <v>40.1744862907394</v>
       </c>
       <c r="L71" t="n">
-        <v>3.853184846118517e-05</v>
+        <v>5.743797702881598e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>4.315071573958535e-07</v>
+        <v>6.432314873043176e-07</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01703487853001758</v>
+        <v>0.0253932526149493</v>
       </c>
       <c r="O71" t="n">
-        <v>1.197766732734972</v>
+        <v>1.785465811483553</v>
       </c>
       <c r="P71" t="n">
-        <v>42.44950362823181</v>
+        <v>63.27787821389205</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.267583084651172e-07</v>
+        <v>3.380200803455552e-07</v>
       </c>
     </row>
     <row r="72">
@@ -4377,52 +4377,52 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.68932317629398e-09</v>
+        <v>4.84466158814699e-09</v>
       </c>
       <c r="C72" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>7.088316534663973e-05</v>
+        <v>3.544158267331987e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>6.344949225703569e-10</v>
+        <v>3.172474612851784e-10</v>
       </c>
       <c r="F72" t="n">
-        <v>2.139676293907232e-09</v>
+        <v>1.069838146953616e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>2.134287423187984e-08</v>
+        <v>1.067143711593992e-08</v>
       </c>
       <c r="H72" t="n">
-        <v>3.294427351141652e-14</v>
+        <v>1.647213675570826e-14</v>
       </c>
       <c r="I72" t="n">
-        <v>3.555768974139795e-13</v>
+        <v>1.777884487069898e-13</v>
       </c>
       <c r="J72" t="n">
-        <v>1.360600529105706e-07</v>
+        <v>6.803002645528529e-08</v>
       </c>
       <c r="K72" t="n">
-        <v>1.490984993864872e-05</v>
+        <v>7.454924969324359e-06</v>
       </c>
       <c r="L72" t="n">
-        <v>2.13168032089213e-11</v>
+        <v>1.065840160446065e-11</v>
       </c>
       <c r="M72" t="n">
-        <v>2.387207861754763e-13</v>
+        <v>1.193603930877381e-13</v>
       </c>
       <c r="N72" t="n">
-        <v>9.424130110914854e-09</v>
+        <v>4.712065055457427e-09</v>
       </c>
       <c r="O72" t="n">
-        <v>6.626351641973288e-07</v>
+        <v>3.313175820986644e-07</v>
       </c>
       <c r="P72" t="n">
-        <v>2.348415015882099e-05</v>
+        <v>1.17420750794105e-05</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.254484908090521e-13</v>
+        <v>6.272424540452605e-14</v>
       </c>
     </row>
     <row r="73">
@@ -4432,52 +4432,52 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08342511277153046</v>
+        <v>0.09492016853912295</v>
       </c>
       <c r="C73" t="n">
-        <v>8.901928</v>
+        <v>10.128515</v>
       </c>
       <c r="D73" t="n">
-        <v>413.2167960099859</v>
+        <v>470.1534899674634</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003590708602900158</v>
+        <v>0.004085468445161912</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01474813049977259</v>
+        <v>0.0167802593987397</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1311073400178898</v>
+        <v>0.1491724781397127</v>
       </c>
       <c r="H73" t="n">
-        <v>9.396932758559286e-08</v>
+        <v>1.069172592713164e-07</v>
       </c>
       <c r="I73" t="n">
-        <v>5.397467367615214e-07</v>
+        <v>6.141178539626607e-07</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7012800924163417</v>
+        <v>0.7979087154198845</v>
       </c>
       <c r="K73" t="n">
-        <v>217.0709464831276</v>
+        <v>246.9809166641827</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0003644752685777491</v>
+        <v>0.0004146959203577876</v>
       </c>
       <c r="M73" t="n">
-        <v>1.145815299021837e-06</v>
+        <v>1.303695945796479e-06</v>
       </c>
       <c r="N73" t="n">
-        <v>0.04964783656810293</v>
+        <v>0.05648875809797371</v>
       </c>
       <c r="O73" t="n">
-        <v>7.572865353871836</v>
+        <v>8.616322253973655</v>
       </c>
       <c r="P73" t="n">
-        <v>108.755009931019</v>
+        <v>123.7402447437763</v>
       </c>
       <c r="Q73" t="n">
-        <v>8.211905091467503e-07</v>
+        <v>9.343414583616601e-07</v>
       </c>
     </row>
     <row r="74">
@@ -4487,52 +4487,52 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8.434420217100979e-08</v>
+        <v>4.685789009500545e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>9e-06</v>
+        <v>5e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0004177691803494539</v>
+        <v>0.00023209398908303</v>
       </c>
       <c r="E74" t="n">
-        <v>3.630267221449258e-09</v>
+        <v>2.016815123027365e-09</v>
       </c>
       <c r="F74" t="n">
-        <v>1.491060975756632e-08</v>
+        <v>8.283672087536845e-09</v>
       </c>
       <c r="G74" t="n">
-        <v>1.325517416183332e-07</v>
+        <v>7.363985645462958e-08</v>
       </c>
       <c r="H74" t="n">
-        <v>9.500458195913324e-14</v>
+        <v>5.278032331062958e-14</v>
       </c>
       <c r="I74" t="n">
-        <v>5.456930937714085e-13</v>
+        <v>3.031628298730047e-13</v>
       </c>
       <c r="J74" t="n">
-        <v>7.090060525929963e-07</v>
+        <v>3.938922514405535e-07</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0002194624039138652</v>
+        <v>0.0001219235577299251</v>
       </c>
       <c r="L74" t="n">
-        <v>3.684906704704536e-10</v>
+        <v>2.04717039150252e-10</v>
       </c>
       <c r="M74" t="n">
-        <v>1.158438676564955e-12</v>
+        <v>6.435770425360864e-13</v>
       </c>
       <c r="N74" t="n">
-        <v>5.019480376755751e-08</v>
+        <v>2.788600209308751e-08</v>
       </c>
       <c r="O74" t="n">
-        <v>7.656295151437559e-06</v>
+        <v>4.2534973063542e-06</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0001099531572687591</v>
+        <v>6.108508737153285e-05</v>
       </c>
       <c r="Q74" t="n">
-        <v>8.302375151001832e-13</v>
+        <v>4.612430639445462e-13</v>
       </c>
     </row>
     <row r="75">
@@ -4542,52 +4542,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2107105444048426</v>
+        <v>0.7638146996485226</v>
       </c>
       <c r="C75" t="n">
-        <v>22.485367</v>
+        <v>81.50827899999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1341.434884824022</v>
+        <v>4862.631277157687</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01186892867365192</v>
+        <v>0.04302424549099514</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02846220223415358</v>
+        <v>0.1031739940315768</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2965509129776412</v>
+        <v>1.074981544783606</v>
       </c>
       <c r="H75" t="n">
-        <v>9.276124139265378e-08</v>
+        <v>3.362546470252753e-07</v>
       </c>
       <c r="I75" t="n">
-        <v>1.514934423850522e-06</v>
+        <v>5.491558029091212e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>1.742552701231881</v>
+        <v>6.316662376211687</v>
       </c>
       <c r="K75" t="n">
-        <v>183.8464489379434</v>
+        <v>666.4337590395187</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001733954397439742</v>
+        <v>0.006285493974805721</v>
       </c>
       <c r="M75" t="n">
-        <v>2.243560016230298e-06</v>
+        <v>8.132787681701778e-06</v>
       </c>
       <c r="N75" t="n">
-        <v>0.09832940116488294</v>
+        <v>0.3564389348881966</v>
       </c>
       <c r="O75" t="n">
-        <v>8.968928320098323</v>
+        <v>32.51189592972067</v>
       </c>
       <c r="P75" t="n">
-        <v>261.430327412028</v>
+        <v>947.6712595245132</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.615585372083711e-06</v>
+        <v>5.856412450644811e-06</v>
       </c>
     </row>
     <row r="76">
@@ -4597,52 +4597,52 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.297269906528586e-08</v>
+        <v>8.648466043523903e-09</v>
       </c>
       <c r="C76" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>8.092101241116158e-05</v>
+        <v>5.394734160744105e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>7.491732389211267e-10</v>
+        <v>4.994488259474177e-10</v>
       </c>
       <c r="F76" t="n">
-        <v>3.825663452571911e-09</v>
+        <v>2.550442301714607e-09</v>
       </c>
       <c r="G76" t="n">
-        <v>3.628882112136926e-08</v>
+        <v>2.419254741424617e-08</v>
       </c>
       <c r="H76" t="n">
-        <v>1.441742238075977e-14</v>
+        <v>9.611614920506511e-15</v>
       </c>
       <c r="I76" t="n">
-        <v>7.476519535777174e-14</v>
+        <v>4.984346357184782e-14</v>
       </c>
       <c r="J76" t="n">
-        <v>1.583522193136638e-07</v>
+        <v>1.055681462091092e-07</v>
       </c>
       <c r="K76" t="n">
-        <v>3.571122257543632e-05</v>
+        <v>2.380748171695754e-05</v>
       </c>
       <c r="L76" t="n">
-        <v>3.113241508427385e-11</v>
+        <v>2.07549433895159e-11</v>
       </c>
       <c r="M76" t="n">
-        <v>3.628213407389698e-13</v>
+        <v>2.418808938259798e-13</v>
       </c>
       <c r="N76" t="n">
-        <v>1.29041264932377e-08</v>
+        <v>8.602750995491797e-09</v>
       </c>
       <c r="O76" t="n">
-        <v>1.414453691053961e-06</v>
+        <v>9.42969127369307e-07</v>
       </c>
       <c r="P76" t="n">
-        <v>3.231874318001194e-05</v>
+        <v>2.154582878667463e-05</v>
       </c>
       <c r="Q76" t="n">
-        <v>3.471735160443621e-13</v>
+        <v>2.314490106962414e-13</v>
       </c>
     </row>
     <row r="77">
@@ -4652,52 +4652,52 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.058577167939379e-08</v>
+        <v>7.646442919848447e-09</v>
       </c>
       <c r="C77" t="n">
-        <v>4.000000000000001e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>0.000174153075436462</v>
+        <v>4.353826885911551e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>1.579530481285921e-09</v>
+        <v>3.948826203214803e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>5.978254379507006e-09</v>
+        <v>1.494563594876751e-09</v>
       </c>
       <c r="G77" t="n">
-        <v>5.160775939837677e-08</v>
+        <v>1.290193984959419e-08</v>
       </c>
       <c r="H77" t="n">
-        <v>4.257148578618377e-14</v>
+        <v>1.064287144654594e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>2.299600411137486e-13</v>
+        <v>5.749001027843715e-14</v>
       </c>
       <c r="J77" t="n">
-        <v>2.974030448333659e-07</v>
+        <v>7.435076120834149e-08</v>
       </c>
       <c r="K77" t="n">
-        <v>7.337953275772631e-05</v>
+        <v>1.834488318943158e-05</v>
       </c>
       <c r="L77" t="n">
-        <v>1.379759744205071e-10</v>
+        <v>3.449399360512678e-11</v>
       </c>
       <c r="M77" t="n">
-        <v>4.780619774059993e-13</v>
+        <v>1.195154943514998e-13</v>
       </c>
       <c r="N77" t="n">
-        <v>2.075819087280908e-08</v>
+        <v>5.18954771820227e-09</v>
       </c>
       <c r="O77" t="n">
-        <v>3.316188542633926e-06</v>
+        <v>8.290471356584814e-07</v>
       </c>
       <c r="P77" t="n">
-        <v>4.578022054282926e-05</v>
+        <v>1.144505513570732e-05</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.181444521912817e-11</v>
+        <v>5.453611304782042e-12</v>
       </c>
     </row>
     <row r="78">
@@ -4707,52 +4707,52 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0005196908331908282</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07049399999999997</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>4.253812201162167</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2.784000925087904e-05</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>7.621991653487021e-05</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0008485796972090227</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2.08212152391674e-09</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6.195200848963106e-09</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.007269745322893748</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8823511304669951</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>6.713397503359462e-06</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>8.021294338202189e-09</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0002795934551890326</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0.03637193715000189</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0.707297783049371</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>4.161787494512169e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4762,52 +4762,52 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001104791576505062</v>
+        <v>1.472046690667085e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005110999999999998</v>
+        <v>0.0006809999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9936505612319774</v>
+        <v>0.1323960149088195</v>
       </c>
       <c r="E79" t="n">
-        <v>8.854620543274984e-06</v>
+        <v>1.179807589506998e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>1.099859275839504e-05</v>
+        <v>1.465474793282532e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0001096696077018863</v>
+        <v>1.461260083055851e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>7.177881901909709e-11</v>
+        <v>9.56395534181278e-12</v>
       </c>
       <c r="I79" t="n">
-        <v>1.498651091418093e-09</v>
+        <v>1.996833091871887e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0004048618828849161</v>
+        <v>5.394461793086048e-05</v>
       </c>
       <c r="K79" t="n">
-        <v>0.08227838232399576</v>
+        <v>0.01096293843917846</v>
       </c>
       <c r="L79" t="n">
-        <v>2.264820423824252e-06</v>
+        <v>3.017692640626718e-07</v>
       </c>
       <c r="M79" t="n">
-        <v>7.730618850378681e-10</v>
+        <v>1.030043325593403e-10</v>
       </c>
       <c r="N79" t="n">
-        <v>3.918728256687478e-05</v>
+        <v>5.221392961855161e-06</v>
       </c>
       <c r="O79" t="n">
-        <v>0.005258503346154703</v>
+        <v>0.0007006536448310219</v>
       </c>
       <c r="P79" t="n">
-        <v>0.05937399016606368</v>
+        <v>0.007911110800839243</v>
       </c>
       <c r="Q79" t="n">
-        <v>4.024653795226226e-10</v>
+        <v>5.362530296515477e-11</v>
       </c>
     </row>
     <row r="80">
@@ -4872,52 +4872,52 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.499535402145562e-05</v>
+        <v>5.665788894743203e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01248599999999611</v>
+        <v>0.007446999999996168</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3200104899967384</v>
+        <v>0.1908632163226996</v>
       </c>
       <c r="E81" t="n">
-        <v>1.658134660877988e-06</v>
+        <v>9.889579384555401e-07</v>
       </c>
       <c r="F81" t="n">
-        <v>2.662323375299228e-05</v>
+        <v>1.587884204376848e-05</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0003259496574580917</v>
+        <v>0.0001944055020895336</v>
       </c>
       <c r="H81" t="n">
-        <v>1.261989482447216e-11</v>
+        <v>7.526858622282966e-12</v>
       </c>
       <c r="I81" t="n">
-        <v>1.506868141891712e-10</v>
+        <v>8.987383511665307e-11</v>
       </c>
       <c r="J81" t="n">
-        <v>0.00136315540598591</v>
+        <v>0.0008130240516078014</v>
       </c>
       <c r="K81" t="n">
-        <v>0.04977731397529451</v>
+        <v>0.02968858378775772</v>
       </c>
       <c r="L81" t="n">
-        <v>1.985745989328111e-07</v>
+        <v>1.184354507650444e-07</v>
       </c>
       <c r="M81" t="n">
-        <v>6.992588927481955e-10</v>
+        <v>4.170575824359086e-10</v>
       </c>
       <c r="N81" t="n">
-        <v>5.510496796348214e-05</v>
+        <v>3.286614579721033e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>0.006749619675424852</v>
+        <v>0.004025662159448876</v>
       </c>
       <c r="P81" t="n">
-        <v>0.2269525233653619</v>
+        <v>0.1353608394603161</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.264987420221304e-09</v>
+        <v>7.54473916257099e-10</v>
       </c>
     </row>
     <row r="82">
@@ -4927,52 +4927,52 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.183910792848177</v>
+        <v>4.183910981641197</v>
       </c>
       <c r="C82" t="n">
-        <v>199.452273</v>
+        <v>199.4522819999999</v>
       </c>
       <c r="D82" t="n">
-        <v>38038.08675756701</v>
+        <v>38038.08847398153</v>
       </c>
       <c r="E82" t="n">
-        <v>0.320062120769348</v>
+        <v>0.3200621352116957</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4026264690179991</v>
+        <v>0.4026264871859455</v>
       </c>
       <c r="G82" t="n">
-        <v>4.743154945319302</v>
+        <v>4.743155159347419</v>
       </c>
       <c r="H82" t="n">
-        <v>2.222346687600691e-06</v>
+        <v>2.222346787880922e-06</v>
       </c>
       <c r="I82" t="n">
-        <v>4.77905150831782e-05</v>
+        <v>4.779051723965717e-05</v>
       </c>
       <c r="J82" t="n">
-        <v>30.03960366427166</v>
+        <v>30.03960501976602</v>
       </c>
       <c r="K82" t="n">
-        <v>7817.790662566033</v>
+        <v>7817.791015332709</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09526801212971273</v>
+        <v>0.09526801642854618</v>
       </c>
       <c r="M82" t="n">
-        <v>3.335637079232078e-05</v>
+        <v>3.335637229747954e-05</v>
       </c>
       <c r="N82" t="n">
-        <v>1.338672869577749</v>
+        <v>1.338672929983456</v>
       </c>
       <c r="O82" t="n">
-        <v>163.5666064109388</v>
+        <v>163.5666137916491</v>
       </c>
       <c r="P82" t="n">
-        <v>2561.992835827948</v>
+        <v>2561.992951434228</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.890919790461964e-05</v>
+        <v>1.890919875787028e-05</v>
       </c>
     </row>
     <row r="83">
@@ -5037,52 +5037,52 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8.390800926792501e-07</v>
+        <v>4.824710532905688e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>4e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.007628509053404873</v>
+        <v>0.004386392705707802</v>
       </c>
       <c r="E84" t="n">
-        <v>6.418821223849337e-08</v>
+        <v>3.690822203713369e-08</v>
       </c>
       <c r="F84" t="n">
-        <v>8.074642879963552e-08</v>
+        <v>4.642919655979042e-08</v>
       </c>
       <c r="G84" t="n">
-        <v>9.512360774789069e-07</v>
+        <v>5.469607445503715e-07</v>
       </c>
       <c r="H84" t="n">
-        <v>4.456899195329183e-13</v>
+        <v>2.56271703731428e-13</v>
       </c>
       <c r="I84" t="n">
-        <v>9.584351055889586e-12</v>
+        <v>5.511001857136512e-12</v>
       </c>
       <c r="J84" t="n">
-        <v>6.024419418729144e-06</v>
+        <v>3.464041165769258e-06</v>
       </c>
       <c r="K84" t="n">
-        <v>0.001567851906619491</v>
+        <v>0.0009015148463062076</v>
       </c>
       <c r="L84" t="n">
-        <v>1.91059265851962e-08</v>
+        <v>1.098590778648781e-08</v>
       </c>
       <c r="M84" t="n">
-        <v>6.689594516141871e-12</v>
+        <v>3.846516846781576e-12</v>
       </c>
       <c r="N84" t="n">
-        <v>2.684698147466584e-07</v>
+        <v>1.543701434793286e-07</v>
       </c>
       <c r="O84" t="n">
-        <v>3.280315715648702e-05</v>
+        <v>1.886181536498004e-05</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0005138056934207909</v>
+        <v>0.0002954382737169548</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.792225101314265e-12</v>
+        <v>2.180529433255703e-12</v>
       </c>
     </row>
     <row r="85">
@@ -5092,52 +5092,52 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.798412984726573e-06</v>
+        <v>4.458773711085125e-06</v>
       </c>
       <c r="C85" t="n">
-        <v>0.000439</v>
+        <v>0.000251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05203408165015052</v>
+        <v>0.0297506936086282</v>
       </c>
       <c r="E85" t="n">
-        <v>4.224569644988428e-07</v>
+        <v>2.415414535061721e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>7.989948066342608e-07</v>
+        <v>4.568284657521628e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>7.733943134792112e-06</v>
+        <v>4.421912817386833e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>5.451469503643955e-12</v>
+        <v>3.11689942007889e-12</v>
       </c>
       <c r="I85" t="n">
-        <v>7.211522229715197e-11</v>
+        <v>4.123216582365636e-11</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0001219876548681436</v>
+        <v>6.974692795422334e-05</v>
       </c>
       <c r="K85" t="n">
-        <v>0.005690063921802467</v>
+        <v>0.00325331672977772</v>
       </c>
       <c r="L85" t="n">
-        <v>1.602121046801171e-07</v>
+        <v>9.160190950958863e-08</v>
       </c>
       <c r="M85" t="n">
-        <v>5.806908024180728e-11</v>
+        <v>3.320122811091942e-11</v>
       </c>
       <c r="N85" t="n">
-        <v>2.187704173583823e-06</v>
+        <v>1.250828582162961e-06</v>
       </c>
       <c r="O85" t="n">
-        <v>0.001946997708462101</v>
+        <v>0.001113203701193593</v>
       </c>
       <c r="P85" t="n">
-        <v>0.007236050192932559</v>
+        <v>0.004137240543111782</v>
       </c>
       <c r="Q85" t="n">
-        <v>6.648036232277876e-11</v>
+        <v>3.801041217088262e-11</v>
       </c>
     </row>
     <row r="86">
@@ -5147,52 +5147,52 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.72700153149127</v>
+        <v>2.727000063578524</v>
       </c>
       <c r="C86" t="n">
-        <v>546.1758219999999</v>
+        <v>546.1755279999998</v>
       </c>
       <c r="D86" t="n">
-        <v>12460.39454949373</v>
+        <v>12460.38784221038</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08011437723418806</v>
+        <v>0.08011433410956414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9584224500857509</v>
+        <v>0.9584219341782554</v>
       </c>
       <c r="G86" t="n">
-        <v>9.380544946841717</v>
+        <v>9.380539897405061</v>
       </c>
       <c r="H86" t="n">
-        <v>2.101396080756834e-06</v>
+        <v>2.10139494960012e-06</v>
       </c>
       <c r="I86" t="n">
-        <v>1.172747128594529e-05</v>
+        <v>1.172746497318588e-05</v>
       </c>
       <c r="J86" t="n">
-        <v>34.26553265278724</v>
+        <v>34.26551420805534</v>
       </c>
       <c r="K86" t="n">
-        <v>6726.347097238493</v>
+        <v>6726.343476525221</v>
       </c>
       <c r="L86" t="n">
-        <v>0.007819101206835913</v>
+        <v>0.007819096997905998</v>
       </c>
       <c r="M86" t="n">
-        <v>9.082778704449001e-05</v>
+        <v>9.082773815296399e-05</v>
       </c>
       <c r="N86" t="n">
-        <v>2.496177522337358</v>
+        <v>2.496176178674452</v>
       </c>
       <c r="O86" t="n">
-        <v>225.2093885047046</v>
+        <v>225.2092672771482</v>
       </c>
       <c r="P86" t="n">
-        <v>4417.340508568706</v>
+        <v>4417.338130766435</v>
       </c>
       <c r="Q86" t="n">
-        <v>4.751285499822653e-05</v>
+        <v>4.751282942261733e-05</v>
       </c>
     </row>
     <row r="87">
@@ -5202,52 +5202,52 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7.473617759667816</v>
+        <v>7.744118971957639</v>
       </c>
       <c r="C87" t="n">
-        <v>829.2964559999999</v>
+        <v>859.312133</v>
       </c>
       <c r="D87" t="n">
-        <v>51516.80055896687</v>
+        <v>53381.40715949403</v>
       </c>
       <c r="E87" t="n">
-        <v>0.405549273044176</v>
+        <v>0.4202277826401206</v>
       </c>
       <c r="F87" t="n">
-        <v>1.479015486728544</v>
+        <v>1.532547189181209</v>
       </c>
       <c r="G87" t="n">
-        <v>12.24898882935438</v>
+        <v>12.69233051931152</v>
       </c>
       <c r="H87" t="n">
-        <v>1.919263070789869e-06</v>
+        <v>1.988729158573147e-06</v>
       </c>
       <c r="I87" t="n">
-        <v>5.73514513591958e-05</v>
+        <v>5.942723816260503e-05</v>
       </c>
       <c r="J87" t="n">
-        <v>98.3120775023223</v>
+        <v>101.8703991883234</v>
       </c>
       <c r="K87" t="n">
-        <v>10148.81566885689</v>
+        <v>10516.14338483226</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08920486865982066</v>
+        <v>0.09243356269938691</v>
       </c>
       <c r="M87" t="n">
-        <v>8.836753661820189e-05</v>
+        <v>9.156592413960911e-05</v>
       </c>
       <c r="N87" t="n">
-        <v>4.007998927596465</v>
+        <v>4.153065025921962</v>
       </c>
       <c r="O87" t="n">
-        <v>1101.462224327691</v>
+        <v>1141.328708880859</v>
       </c>
       <c r="P87" t="n">
-        <v>10624.77804780919</v>
+        <v>11009.33281561557</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0001385664442869602</v>
+        <v>0.0001435817384012231</v>
       </c>
     </row>
     <row r="88">
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.729440577180453e-08</v>
+        <v>2.34331254886392</v>
       </c>
       <c r="C88" t="n">
-        <v>3e-06</v>
+        <v>122.6985</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0005025680279986045</v>
+        <v>20554.78106112893</v>
       </c>
       <c r="E88" t="n">
-        <v>4.221478571826272e-09</v>
+        <v>0.1726563628484086</v>
       </c>
       <c r="F88" t="n">
-        <v>6.211914730420855e-09</v>
+        <v>0.2540642065168478</v>
       </c>
       <c r="G88" t="n">
-        <v>7.138061361836445e-08</v>
+        <v>2.919431406684297</v>
       </c>
       <c r="H88" t="n">
-        <v>2.967220936004007e-14</v>
+        <v>1.213578526720959e-06</v>
       </c>
       <c r="I88" t="n">
-        <v>6.290612208234433e-13</v>
+        <v>2.572828940106842e-05</v>
       </c>
       <c r="J88" t="n">
-        <v>4.042423494121048e-07</v>
+        <v>16.53330996978038</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0001612515722847184</v>
+        <v>6595.108680658843</v>
       </c>
       <c r="L88" t="n">
-        <v>1.22906753889051e-09</v>
+        <v>0.05026824780685243</v>
       </c>
       <c r="M88" t="n">
-        <v>5.104860424343598e-13</v>
+        <v>2.08786238925441e-05</v>
       </c>
       <c r="N88" t="n">
-        <v>2.027507982247322e-08</v>
+        <v>0.8292406271992436</v>
       </c>
       <c r="O88" t="n">
-        <v>2.250592153646605e-06</v>
+        <v>92.04809378806935</v>
       </c>
       <c r="P88" t="n">
-        <v>3.726761678983518e-05</v>
+        <v>1524.226892895864</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.828760971676679e-13</v>
+        <v>1.156949093610903e-05</v>
       </c>
     </row>
     <row r="89">
@@ -5367,52 +5367,52 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.78160445172081e-09</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>5.077293154859112e-05</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>4.112060823653289e-10</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.384370890182003e-09</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2.438674070369804e-08</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3.039756023428834e-15</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.348690210258633e-14</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.393683525961629e-08</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0001322089120919499</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>6.803153873845044e-11</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1.875806412962806e-13</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>7.085831289734335e-09</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3.992178523384298e-07</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.022565305783589e-05</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>9.285601367688916e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5422,52 +5422,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.405170486566065e-07</v>
+        <v>2.307470254867939e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>2.1e-05</v>
+        <v>1.1e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004004967253037557</v>
+        <v>0.002097839989686339</v>
       </c>
       <c r="E91" t="n">
-        <v>3.369881142520902e-08</v>
+        <v>1.765175836558567e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>4.239187511980866e-08</v>
+        <v>2.220526791989977e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>4.993989406764256e-07</v>
+        <v>2.615899213066991e-07</v>
       </c>
       <c r="H91" t="n">
-        <v>2.339872077547866e-13</v>
+        <v>1.225647278715549e-13</v>
       </c>
       <c r="I91" t="n">
-        <v>5.031784304342545e-12</v>
+        <v>2.635696540369904e-12</v>
       </c>
       <c r="J91" t="n">
-        <v>3.162820194832799e-06</v>
+        <v>1.656715340150513e-06</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0008231222509752325</v>
+        <v>0.0004311592743203599</v>
       </c>
       <c r="L91" t="n">
-        <v>1.0030611457228e-08</v>
+        <v>5.254129810928951e-09</v>
       </c>
       <c r="M91" t="n">
-        <v>3.512037120974482e-12</v>
+        <v>1.839638491939014e-12</v>
       </c>
       <c r="N91" t="n">
-        <v>1.409466527419956e-07</v>
+        <v>7.382919905533101e-08</v>
       </c>
       <c r="O91" t="n">
-        <v>1.722165750715571e-05</v>
+        <v>9.020868218033942e-06</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0002697479890459152</v>
+        <v>0.0001412965656907175</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.990918178189988e-12</v>
+        <v>1.042861902861422e-12</v>
       </c>
     </row>
     <row r="92">
@@ -5532,52 +5532,52 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8.727579278244136e-08</v>
+        <v>5.236547566946481e-08</v>
       </c>
       <c r="C93" t="n">
-        <v>5e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0007312419301229907</v>
+        <v>0.0004387451580737943</v>
       </c>
       <c r="E93" t="n">
-        <v>6.4427355922922e-09</v>
+        <v>3.865641355375319e-09</v>
       </c>
       <c r="F93" t="n">
-        <v>9.221890808336498e-09</v>
+        <v>5.533134485001897e-09</v>
       </c>
       <c r="G93" t="n">
-        <v>9.433088149925265e-08</v>
+        <v>5.659852889955158e-08</v>
       </c>
       <c r="H93" t="n">
-        <v>3.750636775247247e-14</v>
+        <v>2.250382065148348e-14</v>
       </c>
       <c r="I93" t="n">
-        <v>1.013655826683214e-12</v>
+        <v>6.081934960099281e-13</v>
       </c>
       <c r="J93" t="n">
-        <v>3.146426294413106e-07</v>
+        <v>1.887855776647864e-07</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0001133708993179493</v>
+        <v>6.802253959076956e-05</v>
       </c>
       <c r="L93" t="n">
-        <v>1.566596765238305e-09</v>
+        <v>9.39958059142983e-10</v>
       </c>
       <c r="M93" t="n">
-        <v>7.920423137635933e-13</v>
+        <v>4.752253882581559e-13</v>
       </c>
       <c r="N93" t="n">
-        <v>3.45721858132961e-08</v>
+        <v>2.074331148797766e-08</v>
       </c>
       <c r="O93" t="n">
-        <v>5.354950733111935e-06</v>
+        <v>3.212970439867161e-06</v>
       </c>
       <c r="P93" t="n">
-        <v>7.052656381311675e-05</v>
+        <v>4.231593828787005e-05</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.782600847874438e-13</v>
+        <v>2.269560508724663e-13</v>
       </c>
     </row>
     <row r="94">
@@ -5642,52 +5642,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.093505540161788</v>
+        <v>5.65784355255014</v>
       </c>
       <c r="C95" t="n">
-        <v>337.456016</v>
+        <v>466.4152340000001</v>
       </c>
       <c r="D95" t="n">
-        <v>44160.50329330004</v>
+        <v>61036.49216644077</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2429435117661901</v>
+        <v>0.3357846638277426</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5637105321224032</v>
+        <v>0.7791331826430832</v>
       </c>
       <c r="G95" t="n">
-        <v>5.963458202673383</v>
+        <v>8.242400849801788</v>
       </c>
       <c r="H95" t="n">
-        <v>1.406315672845889e-06</v>
+        <v>1.943740880376786e-06</v>
       </c>
       <c r="I95" t="n">
-        <v>2.607276407885313e-05</v>
+        <v>3.60365018914497e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>28.01017518774514</v>
+        <v>38.71429696062418</v>
       </c>
       <c r="K95" t="n">
-        <v>6929.718990729791</v>
+        <v>9577.919347615007</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07192398070018911</v>
+        <v>0.09940981549574801</v>
       </c>
       <c r="M95" t="n">
-        <v>3.411449926021469e-05</v>
+        <v>4.715139573995878e-05</v>
       </c>
       <c r="N95" t="n">
-        <v>1.880533513241712</v>
+        <v>2.599181632676762</v>
       </c>
       <c r="O95" t="n">
-        <v>238.8119834472482</v>
+        <v>330.0742670462642</v>
       </c>
       <c r="P95" t="n">
-        <v>4702.683141196848</v>
+        <v>6499.819098584933</v>
       </c>
       <c r="Q95" t="n">
-        <v>3.256465357226689e-05</v>
+        <v>4.50092746784452e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5697,52 +5697,52 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.680466565956246e-06</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01513469431860298</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.210380178024724e-07</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2.23954089713751e-07</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2.214984938534287e-06</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>7.444403300245131e-13</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.592837193992095e-11</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.590786988110856e-05</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.00262557013214704</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3.949494022664526e-08</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1.588600888295151e-11</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>6.9685814514005e-07</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0001670833434152885</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0.001982331842316217</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.596372603766164e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5752,52 +5752,52 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3.070654531840963e-08</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00040854192687525</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>8.35273573322309e-10</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2.958708921018667e-09</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>3.937927873402697e-08</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>4.44897407361385e-15</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>6.810686152207943e-14</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>9.463217777513039e-08</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1.870866156834159e-05</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1.842966614407283e-10</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1.559924145863784e-13</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1.038745280004661e-08</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>7.600667144385016e-07</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.421804802630168e-05</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.919151186596513e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.539009315209533</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>125.843663</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>16664.31425626219</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.09097647287825934</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2128074484906767</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2.237613156034822</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>5.252873984535652e-07</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>9.830858588868092e-06</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>10.48464027507755</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2594.595476549</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0282482729806273</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1.279269779444194e-05</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7051144057337623</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>89.03928951986133</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1762.538845182231</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.223267087509775e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5862,52 +5862,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.864559676783187e-08</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>4e-06</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0005245544999325923</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>2.863058576145947e-09</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>6.740649229220229e-09</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>7.082208796101694e-08</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1.729986825281873e-14</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>3.114522476466673e-13</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.316041499791124e-07</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>8.267936999937513e-05</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>8.877089672566708e-10</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>4.046553166511393e-13</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2.235326702748541e-08</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>2.81567317358678e-06</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>5.590924678122175e-05</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.869153255168308e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5917,52 +5917,52 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E100" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F100" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I100" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J100" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L100" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M100" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N100" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O100" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P100" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="101">
@@ -5972,52 +5972,52 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C101" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E101" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F101" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G101" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H101" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I101" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J101" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L101" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M101" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N101" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O101" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P101" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="102">
@@ -6027,52 +6027,52 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E102" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F102" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G102" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H102" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I102" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J102" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L102" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M102" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N102" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O102" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P102" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="103">
@@ -6082,52 +6082,52 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C103" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E103" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F103" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G103" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H103" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I103" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J103" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L103" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M103" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N103" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O103" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P103" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="104">
@@ -6137,52 +6137,52 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C104" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E104" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F104" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G104" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H104" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I104" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J104" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L104" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M104" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N104" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O104" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P104" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="105">
@@ -6192,52 +6192,52 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C105" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E105" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F105" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G105" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H105" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I105" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J105" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L105" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M105" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N105" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O105" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P105" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="106">
@@ -6247,52 +6247,52 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C106" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E106" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F106" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G106" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J106" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L106" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M106" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N106" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O106" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P106" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="107">
@@ -6302,52 +6302,52 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.271587226617235e-07</v>
+        <v>8.031077220740433e-08</v>
       </c>
       <c r="C107" t="n">
-        <v>1.9e-05</v>
+        <v>1.2e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000964868278268802</v>
+        <v>0.0006093904915381908</v>
       </c>
       <c r="E107" t="n">
-        <v>9.026915779565477e-09</v>
+        <v>5.701209966041354e-09</v>
       </c>
       <c r="F107" t="n">
-        <v>3.278476545717278e-08</v>
+        <v>2.070616765716176e-08</v>
       </c>
       <c r="G107" t="n">
-        <v>2.940177553708264e-07</v>
+        <v>1.856954244447324e-07</v>
       </c>
       <c r="H107" t="n">
-        <v>3.745972254995015e-13</v>
+        <v>2.365877213681062e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>1.226372915521553e-12</v>
+        <v>7.745513150662442e-13</v>
       </c>
       <c r="J107" t="n">
-        <v>1.959255624174626e-06</v>
+        <v>1.237424604741869e-06</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0005587902173892957</v>
+        <v>0.0003529201372985025</v>
       </c>
       <c r="L107" t="n">
-        <v>5.735743236747215e-10</v>
+        <v>3.622574675840346e-10</v>
       </c>
       <c r="M107" t="n">
-        <v>2.908121647900414e-12</v>
+        <v>1.836708409200262e-12</v>
       </c>
       <c r="N107" t="n">
-        <v>1.094754618093455e-07</v>
+        <v>6.91423969322182e-08</v>
       </c>
       <c r="O107" t="n">
-        <v>1.913784894014817e-05</v>
+        <v>1.208706248851463e-05</v>
       </c>
       <c r="P107" t="n">
-        <v>0.000263680248401857</v>
+        <v>0.0001665348937274887</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.624786326693496e-12</v>
+        <v>1.026180837911682e-12</v>
       </c>
     </row>
     <row r="108">
@@ -6357,52 +6357,52 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1039825396296455</v>
+        <v>0.1037485541948192</v>
       </c>
       <c r="C108" t="n">
-        <v>15.537025</v>
+        <v>15.502063</v>
       </c>
       <c r="D108" t="n">
-        <v>789.0096084825963</v>
+        <v>787.2341492854998</v>
       </c>
       <c r="E108" t="n">
-        <v>0.007381653481052804</v>
+        <v>0.007365043005816742</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02680935371195946</v>
+        <v>0.02674902629249032</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2404295376652848</v>
+        <v>0.2398885140461651</v>
       </c>
       <c r="H108" t="n">
-        <v>3.063224451324416e-07</v>
+        <v>3.056331468062357e-07</v>
       </c>
       <c r="I108" t="n">
-        <v>1.002851928830592e-06</v>
+        <v>1.000595273574147e-06</v>
       </c>
       <c r="J108" t="n">
-        <v>1.602158084957461</v>
+        <v>1.598552848371546</v>
       </c>
       <c r="K108" t="n">
-        <v>456.9440830175221</v>
+        <v>455.9158501975029</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0004690336108574862</v>
+        <v>0.0004679781737256801</v>
       </c>
       <c r="M108" t="n">
-        <v>2.378082039287891e-06</v>
+        <v>2.372730789337686e-06</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08952226247464976</v>
+        <v>0.08932081610118774</v>
       </c>
       <c r="O108" t="n">
-        <v>15.6497493383845</v>
+        <v>15.61453368182421</v>
       </c>
       <c r="P108" t="n">
-        <v>215.6214006013612</v>
+        <v>215.1362011884861</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.328649777762895e-06</v>
+        <v>1.32565999989164e-06</v>
       </c>
     </row>
     <row r="109">
@@ -6412,52 +6412,52 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.005718307680404652</v>
+        <v>0.008407373343918225</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8544269999999998</v>
+        <v>1.256226</v>
       </c>
       <c r="D109" t="n">
-        <v>43.38997412612513</v>
+        <v>63.79434830192125</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0004059389773045678</v>
+        <v>0.0005968340159000219</v>
       </c>
       <c r="F109" t="n">
-        <v>0.001474325726067145</v>
+        <v>0.002167635514273806</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01322193203516994</v>
+        <v>0.01943961835570903</v>
       </c>
       <c r="H109" t="n">
-        <v>1.684557808378223e-08</v>
+        <v>2.476730390528088e-08</v>
       </c>
       <c r="I109" t="n">
-        <v>5.514979637317545e-08</v>
+        <v>8.108429169336728e-08</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08810741606298172</v>
+        <v>0.1295404134597049</v>
       </c>
       <c r="K109" t="n">
-        <v>25.12870784596229</v>
+        <v>36.94562103316238</v>
       </c>
       <c r="L109" t="n">
-        <v>2.579354677128532e-05</v>
+        <v>3.792310412276845e-05</v>
       </c>
       <c r="M109" t="n">
-        <v>1.307777713289793e-07</v>
+        <v>1.922767381713339e-07</v>
       </c>
       <c r="N109" t="n">
-        <v>0.00492309423196703</v>
+        <v>0.007238206394047725</v>
       </c>
       <c r="O109" t="n">
-        <v>0.8606260450728406</v>
+        <v>1.265340180141398</v>
       </c>
       <c r="P109" t="n">
-        <v>11.85765913690807</v>
+        <v>17.43378861730901</v>
       </c>
       <c r="Q109" t="n">
-        <v>7.306638456619701e-08</v>
+        <v>1.074262541072033e-07</v>
       </c>
     </row>
     <row r="110">
@@ -6467,52 +6467,52 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.893341281135537e-07</v>
+        <v>5.822530985036813e-07</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000103</v>
+        <v>8.7e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>0.005230601719036136</v>
+        <v>0.004418081063651881</v>
       </c>
       <c r="E110" t="n">
-        <v>4.893538554185494e-08</v>
+        <v>4.13337722537998e-08</v>
       </c>
       <c r="F110" t="n">
-        <v>1.77727939057305e-07</v>
+        <v>1.501197155144227e-07</v>
       </c>
       <c r="G110" t="n">
-        <v>1.593885726483953e-06</v>
+        <v>1.34629182722431e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>2.030711275076244e-12</v>
+        <v>1.715260979918769e-12</v>
       </c>
       <c r="I110" t="n">
-        <v>6.64823212098526e-12</v>
+        <v>5.615497034230268e-12</v>
       </c>
       <c r="J110" t="n">
-        <v>1.062122785736771e-05</v>
+        <v>8.97132838437855e-06</v>
       </c>
       <c r="K110" t="n">
-        <v>0.003029231178478813</v>
+        <v>0.002558670995414143</v>
       </c>
       <c r="L110" t="n">
-        <v>3.109376596762963e-09</v>
+        <v>2.62636663998425e-09</v>
       </c>
       <c r="M110" t="n">
-        <v>1.576508051230224e-11</v>
+        <v>1.331613596670189e-11</v>
       </c>
       <c r="N110" t="n">
-        <v>5.934722403348726e-07</v>
+        <v>5.012823777585817e-07</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0001037472863597506</v>
+        <v>8.763120304173107e-05</v>
       </c>
       <c r="P110" t="n">
-        <v>0.001429424504494277</v>
+        <v>0.001207377979524293</v>
       </c>
       <c r="Q110" t="n">
-        <v>8.808052192075265e-12</v>
+        <v>7.43981107485969e-12</v>
       </c>
     </row>
     <row r="111">
@@ -6522,52 +6522,52 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.8182679999287636</v>
+        <v>1.276907828661104</v>
       </c>
       <c r="C111" t="n">
-        <v>122.265242</v>
+        <v>190.795002</v>
       </c>
       <c r="D111" t="n">
-        <v>6208.939660034653</v>
+        <v>9689.055004317506</v>
       </c>
       <c r="E111" t="n">
-        <v>0.05808831801590482</v>
+        <v>0.09064686390610666</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2109703832912879</v>
+        <v>0.3292194416300427</v>
       </c>
       <c r="G111" t="n">
-        <v>1.892008000668993</v>
+        <v>2.952479906526964</v>
       </c>
       <c r="H111" t="n">
-        <v>2.410537917275006e-06</v>
+        <v>3.761646230966938e-06</v>
       </c>
       <c r="I111" t="n">
-        <v>7.891725331499381e-06</v>
+        <v>1.231504330893056e-05</v>
       </c>
       <c r="J111" t="n">
-        <v>12.60783489629325</v>
+        <v>19.67453582804784</v>
       </c>
       <c r="K111" t="n">
-        <v>3595.822166122886</v>
+        <v>5611.283191809005</v>
       </c>
       <c r="L111" t="n">
-        <v>0.003690958078372429</v>
+        <v>0.005759742854350901</v>
       </c>
       <c r="M111" t="n">
-        <v>1.871379984452542e-05</v>
+        <v>2.920289871723173e-05</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7044759911148094</v>
+        <v>1.099335313413947</v>
       </c>
       <c r="O111" t="n">
-        <v>123.1523016856136</v>
+        <v>192.1792593058562</v>
       </c>
       <c r="P111" t="n">
-        <v>1696.78575691964</v>
+        <v>2647.835448483832</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.045552070691954e-05</v>
+        <v>1.631584791847675e-05</v>
       </c>
     </row>
     <row r="112">
@@ -6577,52 +6577,52 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.002432499516568314</v>
+        <v>0.02637466661626748</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3634629999999996</v>
+        <v>3.940891</v>
       </c>
       <c r="D112" t="n">
-        <v>18.45757468549543</v>
+        <v>200.1284586323693</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0001726815731572738</v>
+        <v>0.001872320587023556</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0006271604845979144</v>
+        <v>0.006800062480383319</v>
       </c>
       <c r="G112" t="n">
-        <v>0.005624451337912974</v>
+        <v>0.06098378557795215</v>
       </c>
       <c r="H112" t="n">
-        <v>7.165906914301322e-09</v>
+        <v>7.769720182083976e-08</v>
       </c>
       <c r="I112" t="n">
-        <v>2.346006205232683e-08</v>
+        <v>2.543685255485604e-07</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03747983825944112</v>
+        <v>0.4063796240004824</v>
       </c>
       <c r="K112" t="n">
-        <v>10.68945098857712</v>
+        <v>115.9016493998694</v>
       </c>
       <c r="L112" t="n">
-        <v>1.097226549504132e-05</v>
+        <v>0.0001189680994737261</v>
       </c>
       <c r="M112" t="n">
-        <v>5.563129571109615e-08</v>
+        <v>6.031889699534689e-07</v>
       </c>
       <c r="N112" t="n">
-        <v>0.002094225251347899</v>
+        <v>0.02270688748238385</v>
       </c>
       <c r="O112" t="n">
-        <v>0.3660999994385823</v>
+        <v>3.969482981452076</v>
       </c>
       <c r="P112" t="n">
-        <v>5.044106006572844</v>
+        <v>54.69132198971803</v>
       </c>
       <c r="Q112" t="n">
-        <v>3.108156382415775e-08</v>
+        <v>3.370055690415503e-07</v>
       </c>
     </row>
     <row r="113">
